--- a/PropProAssistant/Test/WorksheetModels/LicitaNet/LN_02.xlsx
+++ b/PropProAssistant/Test/WorksheetModels/LicitaNet/LN_02.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DotNETProjects\proppro-assistant\PropProAssistant\Models\LicitaNet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54cd02815d7cac6c/Documentos/Projetos/proppro-assistant/PropProAssistant/Test/WorksheetModels/LicitaNet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56206856-F69C-4DF2-BA2B-88F9E9FF3F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{56206856-F69C-4DF2-BA2B-88F9E9FF3F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8017C844-A4A2-4B83-845C-5C8712063E4A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>LOTE</t>
   </si>
@@ -46,6 +46,9 @@
     <t>ACIDO ACETICO 2%, FRASCO DE 01 LITRO.</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>ACIDO ASCORBICO (VITAMINA C ) 1 G AMPOLA 5 ML</t>
   </si>
   <si>
@@ -58,10 +61,10 @@
     <t>AGUA OXIGENADA VOL. 10 C/ 1000ML</t>
   </si>
   <si>
-    <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADA, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 25 X 08 MM, EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA.  (CX C/ 100 UND).</t>
-  </si>
-  <si>
-    <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 13 X 4,5 MM , EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA. (CX C/ 100 UND)</t>
+    <t xml:space="preserve">AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADA, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 25 X 08 MM, EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA.  (CX C/ 100 UND).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 13 X 4,5 MM , EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA. (CX C/ 100 UND)</t>
   </si>
   <si>
     <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 20 X 5,5 MM , EMBALADO EM TUBO TIPO 'HARDPACK' INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA, ).</t>
@@ -70,16 +73,16 @@
     <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 25 X 06 MM , EMBALADO EM TUBO TIPO 'HARDPACK' INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA.</t>
   </si>
   <si>
-    <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 25 X 07 MM , EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA. (CX C/ 100 UND)</t>
-  </si>
-  <si>
-    <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO,COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 40 X 12MM , EMBALADO EM TUBO TIPO  HARDPACK INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA,(CX C/ 100 UND).</t>
-  </si>
-  <si>
-    <t>ALCOOL ABSOLUTO 99,3%  FRASCO COM 1.000 ML</t>
-  </si>
-  <si>
-    <t>ALCOOL ETILICO HIDRATADO 62,4° - ALCOOL 70%, FRASCO COM  1000 ML-ME</t>
+    <t xml:space="preserve">AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 25 X 07 MM , EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA. (CX C/ 100 UND)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO,COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 40 X 12MM , EMBALADO EM TUBO TIPO  HARDPACK INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA,(CX C/ 100 UND).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCOOL ABSOLUTO 99,3%  FRASCO COM 1.000 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCOOL ETILICO HIDRATADO 62,4° - ALCOOL 70%, FRASCO COM  1000 ML-ME</t>
   </si>
   <si>
     <t>ALENDRONATO DE SODIO 10 MG.</t>
@@ -106,7 +109,7 @@
     <t>ATADURA DE CREPE, MEDINDO 06 CM DE LARGURA X 4,5 M DE COMPRIMENTO, NA COR NATURAL, COM 13 FIOS POR CM2, NAO ESTERIL, 100% ALGODAO, RETORCIDOS PROPORCIONANDO ELASTICIDADE E RESISTENCIA, ACONDICIONADAS EM PACOTES COM 12 UNIDADES.</t>
   </si>
   <si>
-    <t>ATADURA DE CREPE, MEDINDO 08 CM DE LARGURA X 4,5 M DE COMPRIMENTO, NA COR NATURAL,  COM    13  FIOS   POR    CM2, NAO ESTERIL, 100% ALGODAO, RETORCIDOS PROPORCIONANDO ELASTICIDADE E RESISTENCIA, ACONDICIONADAS EM PACOTES COM 12 UNIDADES.</t>
+    <t xml:space="preserve">ATADURA DE CREPE, MEDINDO 08 CM DE LARGURA X 4,5 M DE COMPRIMENTO, NA COR NATURAL,  COM    13  FIOS   POR    CM2, NAO ESTERIL, 100% ALGODAO, RETORCIDOS PROPORCIONANDO ELASTICIDADE E RESISTENCIA, ACONDICIONADAS EM PACOTES COM 12 UNIDADES.</t>
   </si>
   <si>
     <t>ATADURA DE CREPE, MEDINDO 10 CM DE LARGURA X 4,5 M DE COMPRIMENTO, NA COR NATURAL, COM 13 FIOS POR CM2, NAO ESTERIL, 100% ALGODAO, RETORCIDOS PROPORCIONANDO ELASTICIDADE E RESISTENCIA, ACONDICIONADAS EM PACOTES COM 12 UNIDADES.</t>
@@ -133,7 +136,7 @@
     <t>BISNAGA DE 100 ML A BASE DE ALCOOL ETILICO 70%, INDICADO PARA HIGIENIZACAO DE PELE. COMPOSICAO: AGUA, ALCOOL ETILICO, GLICEROL E BENZOATO DE DENATONIO.</t>
   </si>
   <si>
-    <t>CANULA DE TRAQUEOSTOMIA DESCARTAVEL COM BALAO N  7,5</t>
+    <t xml:space="preserve">CANULA DE TRAQUEOSTOMIA DESCARTAVEL COM BALAO N  7,5</t>
   </si>
   <si>
     <t>CANULA PARA TRAQUEOSTOMIA ,EM ACO INOXIDAVEL N°6,LONGA,100 MM</t>
@@ -148,13 +151,13 @@
     <t>CARVAO ATIVADO ,PACOTE 1 KG</t>
   </si>
   <si>
-    <t>CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,20G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 22G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
-  </si>
-  <si>
-    <t>CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,22G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 24G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
-  </si>
-  <si>
-    <t>CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,24G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 24G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
+    <t xml:space="preserve">CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,20G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 22G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,22G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 24G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,24G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 24G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
   </si>
   <si>
     <t>CLOBAZAM 10MG COMP.</t>
@@ -178,13 +181,13 @@
     <t>COMPRESSA DE GAZE HIDROFILA (7,5 X 7,5), CONFECCIONADA COM 13 FIOS, COR BRANCA,BORDAS DEVIDAMENTE VOLTADAS PARA DENTRO, EMBALAGEM EM PACOTE PLASTICO COM 500 UNIDADES.</t>
   </si>
   <si>
-    <t>COMPRESSA DE GAZE HIDROFILA  TIPO CAMPO OPERATORIO, 45 X 50CM , DESCARTAVEL, NAO ESTERIL, 100% ALGODAO, ALTA ABSORCAO, COM  CADARCO.PACOTE COM 50 UNIDADES.</t>
+    <t xml:space="preserve">COMPRESSA DE GAZE HIDROFILA  TIPO CAMPO OPERATORIO, 45 X 50CM , DESCARTAVEL, NAO ESTERIL, 100% ALGODAO, ALTA ABSORCAO, COM  CADARCO.PACOTE COM 50 UNIDADES.</t>
   </si>
   <si>
     <t>COMPRESSA DE GAZE HIDROFILA CIRURGICA 45X50CM - TIPO CAMPO OPERATORIO, 45X50CM,DESCARTAVEL, NAO ESTERIL, 100% ALGODAO, ALTA ABSORCAO, COM CADARCO, EMBALAGEM: PACOTE C/ 50 UNIDADES.</t>
   </si>
   <si>
-    <t>DESINCRUSTANTE  DETERGENTE CONCENTRADO COM ALTO TEOR PODER DISSOLVENTE, EMULSIONANTE E DISPERSANTE, COM REGISTRO NO MINISTERIO DA SAUDE.PACOTE COM 1000G</t>
+    <t xml:space="preserve">DESINCRUSTANTE  DETERGENTE CONCENTRADO COM ALTO TEOR PODER DISSOLVENTE, EMULSIONANTE E DISPERSANTE, COM REGISTRO NO MINISTERIO DA SAUDE.PACOTE COM 1000G</t>
   </si>
   <si>
     <t>DESLANOSIDEO 0,2 MG/ML SOLUCAO INJETAVEL ,AMPOLA DE 2ML.</t>
@@ -202,7 +205,7 @@
     <t>EQUIPO PARA ALIMENTACAO ENTERAL</t>
   </si>
   <si>
-    <t>EQUIPO PARA SORO MACRO GOTAS FLEXIVEL TRANSPARENTE COM INJETOR LATERAL ANTI-REFLUXO, CONTENDO COPO DE NIVEL INCOLOR, EM MATERIAL FLEXIVEL,TRANSPARENTE, COM RESPIRO, BICO BISELADO   PROTEGIDO   POR    TAMPA,  COM PINCA ROLETE MULTIREGULAVEL,E CONECTOR PARA SCALP</t>
+    <t xml:space="preserve">EQUIPO PARA SORO MACRO GOTAS FLEXIVEL TRANSPARENTE COM INJETOR LATERAL ANTI-REFLUXO, CONTENDO COPO DE NIVEL INCOLOR, EM MATERIAL FLEXIVEL,TRANSPARENTE, COM RESPIRO, BICO BISELADO   PROTEGIDO   POR    TAMPA,  COM PINCA ROLETE MULTIREGULAVEL,E CONECTOR PARA SCALP</t>
   </si>
   <si>
     <t>EQUIPO PARA SORO MICRO GOTAS FLEXIVEL TRANSPARENTE COM INJETOR LATERAL ANTI-REFLUXO, CONTENDO COPO DE NIVEL INCOLOR, EM MATERIAL FLEXIVEL, TRANSPARENTE, COM RESPIRO, BICO BISELADO PROTEGIDO POR TAMPA, COM PINCA ROLETE MULTIRREGULAVEL, E CONECTOR PARA SCALP. CAIXA COM 250 UNIDADES.</t>
@@ -214,13 +217,13 @@
     <t>ESCOVA PARA COLETA CERVICAL</t>
   </si>
   <si>
-    <t>ESFIGMOMANOMETRO - BRACADEIRA PARA OBESO, ALTAMENTE RESISTENTE A CHOQUES E DESREGULAGEM, GRADUACAO DE 0 A 300 MM HG., BRACADEIRA ADULTO BRIM  METAL COM MANGUITODOIS TUBOS, CIRCUNFERENCIA 41 CM A 51 CM. COM REGISTRO NO MINISTERIO DA SAUDE.</t>
+    <t xml:space="preserve">ESFIGMOMANOMETRO - BRACADEIRA PARA OBESO, ALTAMENTE RESISTENTE A CHOQUES E DESREGULAGEM, GRADUACAO DE 0 A 300 MM HG., BRACADEIRA ADULTO BRIM  METAL COM MANGUITODOIS TUBOS, CIRCUNFERENCIA 41 CM A 51 CM. COM REGISTRO NO MINISTERIO DA SAUDE.</t>
   </si>
   <si>
     <t>ESFIGMOMANOMETRO ADULTO ANEROIDE,PORTATIL ,COM PINTURA TEXTURIZADA ,APOS TRATAMENTO ATIFERRUGEM ,COM VISOR GRADUADO DE 0 A 300 MMHG,PRECISO E DE FACIL LEITURA ,COM PERA BOLSA DE AR E TUBOS CONECTORES EM BORRACHA ,SEM EMENDAS ,COM MANGUITO DE BORRACHA SINTETICA ,EM BRACADEIRA DE NYLON ,FECHO DE VELCRO,COM APROVACAO E CALIBRACAO DO INMETRO .ACOMPANHA ESTETOSCOPIO.</t>
   </si>
   <si>
-    <t>ESFIGMOMANOMETRO COM ESTETOSCOPIO ADULTO, ALTAMENTE RESISTENTE A CHOQUES E DESREGULAGEM, GRADUACAO DE 0 A300 MM HG., BRACADEIRA ADULTO BRIM  METAL COM MANGUITODOIS TUBOS, CIRCUNFERENCIA 22CM A 34 CM. COM REGISTRO NO MINISTERIO DA SAUDE.</t>
+    <t xml:space="preserve">ESFIGMOMANOMETRO COM ESTETOSCOPIO ADULTO, ALTAMENTE RESISTENTE A CHOQUES E DESREGULAGEM, GRADUACAO DE 0 A300 MM HG., BRACADEIRA ADULTO BRIM  METAL COM MANGUITODOIS TUBOS, CIRCUNFERENCIA 22CM A 34 CM. COM REGISTRO NO MINISTERIO DA SAUDE.</t>
   </si>
   <si>
     <t>ESFIGMOMANOMETRO DIGITAL DE BRACO - MONITOR DE PRESSAO AUTOMATICO DE BRACO, INDICADOR DE HIPERTENSAO, ADAPTA-SE A UMA CIRCUNFERENCIA DE BRACO DE 220 MM A 420 MM, VALVULA DE LIBERACAO AUTOMATICA DE PRESSAO, LIBERACAO RAPIDA DE AR: VALVULA DELIBERACAO AUTOMATICA, METODO OSCILOMETRICO, MEMORIA: ATE 30 LEITURAS. ESPECIFICACOES TECNICAS: DETECTA BATIMENTOS CARDIACOS IRREGULARES, CONTROLE DE INFLACAO,INDICADOR DE HIPERTENSAO, ATIVACAO AO TOQUE DE UM BOTAO, BRACADEIRA ERGONOMICA,REGISTRO ANVISA, VISOR DIGITALLCD.</t>
@@ -238,7 +241,7 @@
     <t>ESPATULAS DE MADEIRA  ABAIXADOR DE LINGUA (ESPATULA DE MADEIRA) DESCARTAVEL, FORMATO CONVENCIONAL LISO, SUPERFICIE E BORDAS PERFEITAMENTE ACABADAS,ESPESSURA ELARGURA UNIFORME EM TODA SUA EXTENSAO, MEDINDO APROXIMADAMENTE 14 CM DE COMPRIMENTO, 1,4 CM DE LARGURA,0,5 MM DE ESPESSURA, EMBALADO EM PACOTE COM 100 PECAS, CONSTANDO OS DADOS DE IDENTIFICACAO, PROCEDENCIA, NR, DO LOTE, DATA DE FABRICACAO,MARCA, FABRICANTE, PROCEDENCIA E SER REGISTRADO/NOTIFICADO EM ORGAO COMPETENTE,SE NECESSARIO. PACOTE COM 100 UNIDADES</t>
   </si>
   <si>
-    <t>ESPECULO VAGINAL NAO LUBRIFICADO DESCARTAVEL ESTERIL POLIETILENO TAM.  P</t>
+    <t xml:space="preserve">ESPECULO VAGINAL NAO LUBRIFICADO DESCARTAVEL ESTERIL POLIETILENO TAM.  P</t>
   </si>
   <si>
     <t>ESPECULO VAGINAL NAO LUBRIFICADO DESCARTAVEL ESTERIL POLIETILENO TAM. G</t>
@@ -289,7 +292,7 @@
     <t>FIO MONONYLON 6.0 C/ AGULHA ESTERELIZADA 3CM CX 24UN</t>
   </si>
   <si>
-    <t>FITA ADESIVA 25 MM X 10 M  HIPOALERGICA, MICROPOROSA, INDOLOR. FITA CIRURGICA CONSTITUIDADE  RAYON VISCOSO  VISCOSO NAO TRANCADO, SUPERFICIE ADESIVA IMPREGNADADE SUBSTANCIA A BASE DE ETER SINTETICO, QUIMICAMENTE INERTE.</t>
+    <t xml:space="preserve">FITA ADESIVA 25 MM X 10 M  HIPOALERGICA, MICROPOROSA, INDOLOR. FITA CIRURGICA CONSTITUIDADE  RAYON VISCOSO  VISCOSO NAO TRANCADO, SUPERFICIE ADESIVA IMPREGNADADE SUBSTANCIA A BASE DE ETER SINTETICO, QUIMICAMENTE INERTE.</t>
   </si>
   <si>
     <t>FITA ADESIVA PARA AUTOCLAVE, DORSO EM PAPEL CREPADO TRATADO E NA OUTRA FACE ADESIVO ESPECIAL RESISTENTE A ALTAS TEMPERATURAS, DIMENSOES: 18MMX30M, EMBALAGEM: EMBALADAS INDIVIDUALMENTE E ACONDICIONADAS EM SACO PLASTICO, CARACTERISTICAS ADICIONAIS: COM IMPRESSAO NO DORSO DE SINALIZADOR VISUAL QUE INDIQUE PASSAGEM PELO PROCESSO DE ESTERILIZACAO EM AUTOCLAVE(LISTRAS BRANCAS NA DIAGONAL), UNIDADE DE FORNECIMENTO: PACOTE COM UMA UNIDADE.</t>
@@ -316,10 +319,10 @@
     <t>GEL PARA ULTRASSON E ALTA PERFORMANCE BIOGEL.UM GEL DE ALTA PERFORMANCE COM PH BALANCEADO, INODORO, HIDROSSOLUVEL, ISENTO DE SAL, HIPOALERGENICO E COM VISCOSIDADE ADEQUADA , C0M 250GR.</t>
   </si>
   <si>
-    <t>INDICADOR BIOLOGICO USADO NA MONITORACAO DE CICLOS DE ESTERILIZACAO DE VAPOR SATURADO, CADA TUBO DE TESTE CONTEM UM DISCO DE ESPOROS DE GEOBACILUS STEAROTHERMOPHISLUS EM MEIO DE CULTURA CONTENDO UMA AMPOLA DE VIDRO COM PURPURA DE BROMOCRESOL COMO INDICADOR DE PH. A PRODUCAO DE ACIDO ASSOCIADA AO CRESCIMENTO ORIGINA A MUDANCA DE COR DO MEIO DE PURPURA PARA AMARELO, FACILITANDO A DETECCAO  DO CRESCIMENTO, COM 100 AMPOLAS.</t>
-  </si>
-  <si>
-    <t>INDICADOR QUIMICO  INTERNO COMPLY 1250 MULTIPARAMETRICO PARA VAPOR CONTENDO 250TIRAS DE 1,5 X 20CM OU 240 TIRAS DE 1,5CM X 10CM</t>
+    <t xml:space="preserve">INDICADOR BIOLOGICO USADO NA MONITORACAO DE CICLOS DE ESTERILIZACAO DE VAPOR SATURADO, CADA TUBO DE TESTE CONTEM UM DISCO DE ESPOROS DE GEOBACILUS STEAROTHERMOPHISLUS EM MEIO DE CULTURA CONTENDO UMA AMPOLA DE VIDRO COM PURPURA DE BROMOCRESOL COMO INDICADOR DE PH. A PRODUCAO DE ACIDO ASSOCIADA AO CRESCIMENTO ORIGINA A MUDANCA DE COR DO MEIO DE PURPURA PARA AMARELO, FACILITANDO A DETECCAO  DO CRESCIMENTO, COM 100 AMPOLAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICADOR QUIMICO  INTERNO COMPLY 1250 MULTIPARAMETRICO PARA VAPOR CONTENDO 250TIRAS DE 1,5 X 20CM OU 240 TIRAS DE 1,5CM X 10CM</t>
   </si>
   <si>
     <t>INFUSOR DE 2 VIAS(INTERMEDIARIO EM Y)- ATOXICO, ESTERIL E APIROGENICO.</t>
@@ -331,13 +334,13 @@
     <t>KIT PARA CONTENCAO DE PACIENTES PARA MAOS, PES E ABDOMEN. S</t>
   </si>
   <si>
-    <t>LAMINA DE BISTURI N  15 EM ACO CARBONO CX COM 100 UNIDADES</t>
-  </si>
-  <si>
-    <t>LAMINA DE BISTURI N  22 EM ACO CARBONO C/ 100 UNIDADES</t>
-  </si>
-  <si>
-    <t>LAMINA DE BISTURI N.  11 EM ACO CARBONO CX COM 100 UNIDADES</t>
+    <t xml:space="preserve">LAMINA DE BISTURI N  15 EM ACO CARBONO CX COM 100 UNIDADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMINA DE BISTURI N  22 EM ACO CARBONO C/ 100 UNIDADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMINA DE BISTURI N.  11 EM ACO CARBONO CX COM 100 UNIDADES</t>
   </si>
   <si>
     <t>LAMINA PARA MISCROSCOPIO FOSCA NAO LAPIDADA MED. 26 X 76 MM, ESPESSURA 0,9 A, 1.1MM,TIPOEXTRAFINOFOSCA. CX COM 50 UNIDADES.</t>
@@ -358,7 +361,7 @@
     <t>LUVA CIRURGICA 7,5 CONFECCIONADA EM LATEX, ESTERIL, DESCARTAVEL - LUVA CIRURGICAESTERIL, CONFECCIONADA EM LATEX NATURAL, FORMATO ANATOMICO, FLEXIBILIDADE, RESISTENCIA E SENSIBILIDADE TACTIL ADEQUADAS A SUA FINALIDADE, PUNHO REFORCADO NA BORDA,LUBRIFICADA COM PO BIOABSORVIVEL PELO ORGANISMO, TAMANHO 7,5, EMBALADA EM ENVELOPE GRAU CIRURGICO CONTENDO 1 PAR, SELADO A QUENTE NOS QUATRO LADOS, SENDO QUENO LADO SUPERIOR DEVE POSSUIR ABAS QUE PERMITAM ABERTURA ASSEPTICA DO MATERIAL,OS DADOS DE IDENTIFICACAO DEVERAO SER ESTAMPADOS NA FACE EXTERNA.</t>
   </si>
   <si>
-    <t>LUVA CIRURGICA 8.0 CONFECCIONADA EM LATEX, ESTERIL, DESCARTAVEL - LUVA CIRURGICAESTERIL, CONFECCIONADA EM LATEX NATURAL, FORMATO ANATOMICO, FLEXIBILIDADE, RESISTENCIA E SENSIBILIDADE TACTIL ADEQUADAS A SUA FINALIDADE, PUNHO REFORCADO NA BORDA, LUBRIFICADA COM PO BIOABSORVIVEL PELO ORGANISMO, TAMANHO 8,0, EMBALADA EM ENVELOPE GRAU CIRURGICO CONTENDO 1 PAR, SELADO A QUENTE NOS QUATRO LADOS, SENDO QUE NO LADO SUPERIOR DEVE POSSUIR ABAS QUE PERMITAM ABERTURA    ASSEPTICA    DO MATERIAL, OS DADOS DE IDENTIFICACAO DEVERAO SER ESTAMPADOS NA FACE EXTERNA.</t>
+    <t xml:space="preserve">LUVA CIRURGICA 8.0 CONFECCIONADA EM LATEX, ESTERIL, DESCARTAVEL - LUVA CIRURGICAESTERIL, CONFECCIONADA EM LATEX NATURAL, FORMATO ANATOMICO, FLEXIBILIDADE, RESISTENCIA E SENSIBILIDADE TACTIL ADEQUADAS A SUA FINALIDADE, PUNHO REFORCADO NA BORDA, LUBRIFICADA COM PO BIOABSORVIVEL PELO ORGANISMO, TAMANHO 8,0, EMBALADA EM ENVELOPE GRAU CIRURGICO CONTENDO 1 PAR, SELADO A QUENTE NOS QUATRO LADOS, SENDO QUE NO LADO SUPERIOR DEVE POSSUIR ABAS QUE PERMITAM ABERTURA    ASSEPTICA    DO MATERIAL, OS DADOS DE IDENTIFICACAO DEVERAO SER ESTAMPADOS NA FACE EXTERNA.</t>
   </si>
   <si>
     <t>LUVA CIRURGICA 8.5 CONFECCIONADA EM LATEX, ESTERIL, DESCARTAVEL - LUVA CIRURGICAESTERIL, CONFECCIONADA EM LATEX NATURAL, FORMATO ANATOMICO, FLEXIBILIDADE, RESISTENCIA E SENSIBILIDADE TACTIL ADEQUADAS A SUA FINALIDADE, PUNHO REFORCADO NA BORDA, LUBRIFICADA COM PO BIOABSORVIVEL PELO ORGANISMO, TAMANHO 8,5, EMBALADA EM ENVELOPE GRAU CIRURGICO CONTENDO 1 PAR, SELADO A QUENTE NOS QUATRO LADOS, SENDO QUE NO LADO SUPERIOR DEVE POSSUIR ABAS QUE PERMITAM ABERTURA ASSEPTICA DO MATERIAL, OS DADOS DE IDENTIFICACAO DEVERAO SER ESTAMPADOS NA FACE EXTERNA</t>
@@ -409,7 +412,7 @@
     <t>PRESERVATIVO SEM LUBRIFICACAO PARA USO EM TRANSDUTORES DE APARELHO DE ULTRASSONOGRAFIA. CX C/ 144UNIDADES.</t>
   </si>
   <si>
-    <t>PVPI  TOPICO - ANTI-SEPTICO A BASE DE PVPI TOPICO ( POLVIDINE TOPICO ) FRASCO COM 1000 ML .</t>
+    <t xml:space="preserve">PVPI  TOPICO - ANTI-SEPTICO A BASE DE PVPI TOPICO ( POLVIDINE TOPICO ) FRASCO COM 1000 ML .</t>
   </si>
   <si>
     <t>PVPI DERGERMANTE IODOPOVIDONA (POLIVINIL PIRROLIDONA IODO) - P.V.P.I 10% (1% DEIODO ATIVO), FRASCO COM 1000 ML 1000 ML</t>
@@ -484,7 +487,7 @@
     <t>SONDA FOLLEY 3 VIAS No 16, SONDA FOLLEY 20, BALAO DE 30CC, CONFECCIONADA EM BORRACHA NATURAL, SILICONIZADA, ESTERIL , COM TRES VIAS NAS EXTREMIDADE DISTAL E PROXIMAL (PONTA DEVERA SER ARREDONDADA COM DOIS ORIFICIOS LATERAIS EM LADOS OPOSTOSE NA MESMA ALTURA) CADA SONDA DEVERA APRESENTAR A MARCA COMERCIAL, NUMERO DE CALIBRE E A CAPACIDADE DO BALAO ESTAMPADOS EM LOCAL DE FACIL VISUALIZACAO E DE CARATER PERMANENTE, EMBALADO INDIVIDUALMENTE EM PAPEL GRAU CIRURGICO, NA EMBALAGEMDEVERA CONSTAR OS DADOS DE IDENTIFICACAO, No DO LOTE, DA DATA DE FABRICACAO, MARCA, FABRICANTE, PROCEDENCIA E SER REGISTRADO, NOTIFICADO EM ORGAO COMPETENTE.</t>
   </si>
   <si>
-    <t>SONDA FOLLEY 3 VIAS No 18,  BALAO DE 30CC, CONFECCIONADA EM BORRACHA NATURAL, SILICONIZADA, ESTERIL , COM TRES VIAS NAS EXTREMIDADE DISTAL E PROXIMAL (PONTA DEVERA SER ARREDONDADA COM DOIS ORIFICIOS LATERAIS EM LADOS OPOSTOSE NA MESMA ALTURA) CADA SONDA DEVERA APRESENTAR A MARCA COMERCIAL, NUMERO DE CALIBRE E A CAPACIDADE DO BALAO ESTAMPADOS EM LOCAL DE FACIL VISUALIZACAO E DE CARATER PERMANENTE,EMBALADO INDIVIDUALMENTE EM PAPEL GRAU CIRURGICO, NA EMBALAGEMDEVERA CONSTAR OSDADOS DE IDENTIFICACAO, No DO LOTE, DA DATA DE FABRICACAO, MARCA, FABRICANTE, PROCEDENCIA E SER REGISTRADO, NOTIFICADO EM ORGAO COMPETENTE.</t>
+    <t xml:space="preserve">SONDA FOLLEY 3 VIAS No 18,  BALAO DE 30CC, CONFECCIONADA EM BORRACHA NATURAL, SILICONIZADA, ESTERIL , COM TRES VIAS NAS EXTREMIDADE DISTAL E PROXIMAL (PONTA DEVERA SER ARREDONDADA COM DOIS ORIFICIOS LATERAIS EM LADOS OPOSTOSE NA MESMA ALTURA) CADA SONDA DEVERA APRESENTAR A MARCA COMERCIAL, NUMERO DE CALIBRE E A CAPACIDADE DO BALAO ESTAMPADOS EM LOCAL DE FACIL VISUALIZACAO E DE CARATER PERMANENTE,EMBALADO INDIVIDUALMENTE EM PAPEL GRAU CIRURGICO, NA EMBALAGEMDEVERA CONSTAR OSDADOS DE IDENTIFICACAO, No DO LOTE, DA DATA DE FABRICACAO, MARCA, FABRICANTE, PROCEDENCIA E SER REGISTRADO, NOTIFICADO EM ORGAO COMPETENTE.</t>
   </si>
   <si>
     <t>SONDA PARA ASPIRACAO COM VALVULA No 12 ,EM PVC ESTERIL</t>
@@ -541,7 +544,7 @@
     <t>TETRACAINA,CLORIDRATO+ FENILEFRINA, CLORIDRATO 0,1%SOLUCAO OFTALMICA ESTERIL COM10 ML</t>
   </si>
   <si>
-    <t>THREEWAY - TORNEIRINHA 3 VIAS LUER LOCK,  DESCARTAVEL INDICADA PARA PROCEDIMENTOS ENDOVENOSOS, FABRICADA EM POLIMERO POLICARBONATO, ATOXICA, APIROGENICA, DESCARTAVEL E DE USO UNICO, ESTERILIZADA POR OXIDO DE ETILENO, COR TRANSPARENTE.</t>
+    <t xml:space="preserve">THREEWAY - TORNEIRINHA 3 VIAS LUER LOCK,  DESCARTAVEL INDICADA PARA PROCEDIMENTOS ENDOVENOSOS, FABRICADA EM POLIMERO POLICARBONATO, ATOXICA, APIROGENICA, DESCARTAVEL E DE USO UNICO, ESTERILIZADA POR OXIDO DE ETILENO, COR TRANSPARENTE.</t>
   </si>
   <si>
     <t>TIMOLOL MALEATO 5 MG /ML ,SOLUCAO OFTALMICA.FRASCO COM 5 ML</t>
@@ -553,7 +556,7 @@
     <t>TIORIDAZINA,CLORIDRATO DE 200MG (COMPRIMIDOS RETARD)</t>
   </si>
   <si>
-    <t>TIRA REAGENTE P/ DET.DE GLICOSE NO SANGUE -EM PAPEL CREPADO, PARA DETERMINACAO DE GLICOSE NO SANGUE ,ACOMPANHADO DE 03  APARELHOS ESPECIFICO,EMBALAGEM COM 50 TIRAS, EMBALAGEM COM DADOS DE IDENTIFICACAO, PROCEDENCIA, DATAETIPO DE ESTERILIZACAO, VALIDADE NO MINIMO DE 1 ANO E REG. NO MINISTERIO DA SAUDE.AMPLA</t>
+    <t xml:space="preserve">TIRA REAGENTE P/ DET.DE GLICOSE NO SANGUE -EM PAPEL CREPADO, PARA DETERMINACAO DE GLICOSE NO SANGUE ,ACOMPANHADO DE 03  APARELHOS ESPECIFICO,EMBALAGEM COM 50 TIRAS, EMBALAGEM COM DADOS DE IDENTIFICACAO, PROCEDENCIA, DATAETIPO DE ESTERILIZACAO, VALIDADE NO MINIMO DE 1 ANO E REG. NO MINISTERIO DA SAUDE.AMPLA</t>
   </si>
   <si>
     <t>TIRA REAGENTE P/ DET.DE GLICOSE NO SANGUE -EM PAPEL CREPADO, PARA DETERMINACAO DE GLICOSE NO SANGUE ,ACOMPANHADO DE 50 UNIDADES DE APARELHO ESPECIFICO(DA TIRA),EMBALAGEM COM 50 TIRAS, EMBALAGEM COM DADOS DE IDENTIFICACAO, PROCEDENCIA, DATAETIPO DE ESTERILIZACAO, VALIDADE NO MINIMO DE 1 ANO E REG. NO MINISTERIO DA SAUDE.ME/EPP</t>
@@ -563,97 +566,14 @@
   </si>
   <si>
     <t>VASELINA LIQUIDA 1000 ML</t>
-  </si>
-  <si>
-    <t>FARMACE</t>
-  </si>
-  <si>
-    <t>LABOR</t>
-  </si>
-  <si>
-    <t>MEDIX</t>
-  </si>
-  <si>
-    <t>DELTA</t>
-  </si>
-  <si>
-    <t>DELICATO</t>
-  </si>
-  <si>
-    <t>HIPOLABOR</t>
-  </si>
-  <si>
-    <t>EMS</t>
-  </si>
-  <si>
-    <t>CREMER</t>
-  </si>
-  <si>
-    <t>ANADONA</t>
-  </si>
-  <si>
-    <t>TEUTO</t>
-  </si>
-  <si>
-    <t>URBANIL</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>VALENTINA</t>
-  </si>
-  <si>
-    <t>TAKEDA</t>
-  </si>
-  <si>
-    <t>DESCARPACK</t>
-  </si>
-  <si>
-    <t>INJEX</t>
-  </si>
-  <si>
-    <t>MISSNER</t>
-  </si>
-  <si>
-    <t>SANOFI</t>
-  </si>
-  <si>
-    <t>CIEX</t>
-  </si>
-  <si>
-    <t>BIOBASE</t>
-  </si>
-  <si>
-    <t>ROCHE</t>
-  </si>
-  <si>
-    <t>AMERICA</t>
-  </si>
-  <si>
-    <t>PLUMAX</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>SOLIDOR</t>
-  </si>
-  <si>
-    <t>CELLERA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -680,12 +600,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,23 +911,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="70" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70" customWidth="1" style="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1015,21 +936,23 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>3102298</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1038,3319 +961,3998 @@
       <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>3102299</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>1400</v>
       </c>
-      <c r="E3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>3102300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>150</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>3102301</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>150</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>3102302</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="90">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>3102303</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>378</v>
       </c>
-      <c r="E7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="90">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>3102304</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>316</v>
       </c>
-      <c r="E8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="2">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="90">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0">
         <v>3102305</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>250</v>
       </c>
-      <c r="E9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="2">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="90">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>3102306</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>560</v>
       </c>
-      <c r="E10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="90">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>3102307</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <v>520</v>
       </c>
-      <c r="E11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="2">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="90">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>3102308</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <v>315</v>
       </c>
-      <c r="E12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="2">
-        <v>11.57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>3102309</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>624</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>3102310</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>3125</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>3102311</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2">
         <v>1000</v>
       </c>
-      <c r="E15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="120">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>3102312</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2">
         <v>524</v>
       </c>
-      <c r="E16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="2">
-        <v>23.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>3102313</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2">
         <v>650</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>3102314</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2">
         <v>610</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>3102315</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2">
         <v>4400</v>
       </c>
-      <c r="E19" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="2">
-        <v>13.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="30">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>3102316</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2">
         <v>2200</v>
       </c>
-      <c r="E20" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="2">
-        <v>74.41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>3102317</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>42000</v>
       </c>
-      <c r="E21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="2">
-        <v>8.24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="60">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>3102318</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>800</v>
       </c>
-      <c r="E22" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G22" s="2">
-        <v>27.17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="60">
+      <c r="A23" s="0">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>3102319</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>1010</v>
       </c>
-      <c r="E23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="2">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="E23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="60">
+      <c r="A24" s="0">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>3102320</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>1850</v>
       </c>
-      <c r="E24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" s="2">
-        <v>33.799999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="60">
+      <c r="A25" s="0">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>3102321</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>1850</v>
       </c>
-      <c r="E25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="2">
-        <v>38.869999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="60">
+      <c r="A26" s="0">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>3102322</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>1950</v>
       </c>
-      <c r="E26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="2">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="60">
+      <c r="A27" s="0">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>3102323</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>1350</v>
       </c>
-      <c r="E27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="2">
-        <v>57.85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0">
         <v>3102324</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>800</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" ht="45">
+      <c r="A29" s="0">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>3102325</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>1420</v>
       </c>
-      <c r="E29" t="s">
-        <v>189</v>
-      </c>
-      <c r="F29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="2">
-        <v>89.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="E29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>3102326</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2">
         <v>1400</v>
       </c>
-      <c r="E30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="2">
-        <v>15.47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="E30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="45">
+      <c r="A31" s="0">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0">
         <v>3102327</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2">
         <v>500</v>
       </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="E31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0">
         <v>3102328</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2">
         <v>10</v>
       </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="E32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0">
         <v>3102329</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2">
         <v>6</v>
       </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="E33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>3102330</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2">
         <v>12</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="E34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>3102331</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2">
         <v>15</v>
       </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="E35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>3102332</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2">
         <v>12</v>
       </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="E36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="135">
+      <c r="A37" s="0">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0">
         <v>3102333</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
       </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="E37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" ht="135">
+      <c r="A38" s="0">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>3102334</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2">
         <v>30</v>
       </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="E38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" ht="135">
+      <c r="A39" s="0">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>3102335</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2">
         <v>20</v>
       </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="E39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>3102336</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2">
         <v>25000</v>
       </c>
-      <c r="E40" t="s">
-        <v>191</v>
-      </c>
-      <c r="F40" t="s">
-        <v>191</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="E40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>3102337</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2">
         <v>50</v>
       </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="E41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>3102338</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D42" s="2">
         <v>150</v>
       </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="E42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" ht="135">
+      <c r="A43" s="0">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>3102339</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2">
         <v>800</v>
       </c>
-      <c r="E43" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G43" s="2">
-        <v>6.37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="E43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" ht="75">
+      <c r="A44" s="0">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>3102340</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2">
         <v>70</v>
       </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="E44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" ht="60">
+      <c r="A45" s="0">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>3102341</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2">
         <v>200</v>
       </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="E45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" ht="45">
+      <c r="A46" s="0">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>3102342</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2">
         <v>6365</v>
       </c>
-      <c r="E46" t="s">
-        <v>192</v>
-      </c>
-      <c r="F46" t="s">
-        <v>192</v>
-      </c>
-      <c r="G46" s="2">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="E46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" ht="45">
+      <c r="A47" s="0">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>3102343</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2">
         <v>50</v>
       </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="E47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" ht="45">
+      <c r="A48" s="0">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>3102344</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2">
         <v>600</v>
       </c>
-      <c r="E48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" s="2">
-        <v>107.9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="E48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" ht="45">
+      <c r="A49" s="0">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>3102345</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2">
         <v>110</v>
       </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="E49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>3102346</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2">
         <v>100</v>
       </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="E50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" ht="30">
+      <c r="A51" s="0">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0">
         <v>3102347</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2">
         <v>2500</v>
       </c>
-      <c r="E51" t="s">
-        <v>194</v>
-      </c>
-      <c r="F51" t="s">
-        <v>194</v>
-      </c>
-      <c r="G51" s="2">
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="E51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0">
         <v>3102348</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2">
         <v>2200</v>
       </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="E52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0">
         <v>3102349</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2">
         <v>200</v>
       </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="E53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0">
         <v>3102350</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2">
         <v>5000</v>
       </c>
-      <c r="E54" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" s="2">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="E54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" ht="75">
+      <c r="A55" s="0">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0">
         <v>3102351</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2">
         <v>4000</v>
       </c>
-      <c r="E55" t="s">
-        <v>196</v>
-      </c>
-      <c r="F55" t="s">
-        <v>196</v>
-      </c>
-      <c r="G55" s="2">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="E55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" ht="75">
+      <c r="A56" s="0">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0">
         <v>3102352</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D56" s="2">
         <v>2000</v>
       </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="E56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0">
         <v>3102353</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57" s="2">
         <v>100</v>
       </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="E57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0">
         <v>3102354</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2">
         <v>8300</v>
       </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="E58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" ht="60">
+      <c r="A59" s="0">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0">
         <v>3102355</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59" s="2">
         <v>19</v>
       </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="E59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" ht="90">
+      <c r="A60" s="0">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0">
         <v>3102356</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D60" s="2">
         <v>100</v>
       </c>
-      <c r="G60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="E60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" ht="60">
+      <c r="A61" s="0">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0">
         <v>3102357</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D61" s="2">
         <v>15</v>
       </c>
-      <c r="G61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" ht="135">
+      <c r="A62" s="0">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0">
         <v>3102358</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2">
         <v>60</v>
       </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="E62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" ht="105">
+      <c r="A63" s="0">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0">
         <v>3102359</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D63" s="2">
         <v>13</v>
       </c>
-      <c r="G63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" ht="90">
+      <c r="A64" s="0">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0">
         <v>3102360</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D64" s="2">
         <v>2880</v>
       </c>
-      <c r="E64" t="s">
-        <v>197</v>
-      </c>
-      <c r="F64" t="s">
-        <v>197</v>
-      </c>
-      <c r="G64" s="2">
-        <v>18.07</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="E64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" ht="45">
+      <c r="A65" s="0">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0">
         <v>3102361</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D65" s="2">
         <v>300</v>
       </c>
-      <c r="G65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="E65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" ht="135">
+      <c r="A66" s="0">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0">
         <v>3102362</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D66" s="2">
         <v>490</v>
       </c>
-      <c r="G66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="E66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" ht="30">
+      <c r="A67" s="0">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0">
         <v>3102363</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D67" s="2">
         <v>3500</v>
       </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="E67" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" ht="30">
+      <c r="A68" s="0">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0">
         <v>3102364</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D68" s="2">
         <v>3300</v>
       </c>
-      <c r="G68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="E68" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" ht="30">
+      <c r="A69" s="0">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0">
         <v>3102365</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D69" s="2">
         <v>8000</v>
       </c>
-      <c r="G69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="E69" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0">
         <v>3102366</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D70" s="2">
         <v>1000</v>
       </c>
-      <c r="E70" t="s">
-        <v>198</v>
-      </c>
-      <c r="F70" t="s">
-        <v>198</v>
-      </c>
-      <c r="G70" s="2">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="E70" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" ht="195">
+      <c r="A71" s="0">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0">
         <v>3102367</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2">
         <v>65</v>
       </c>
-      <c r="G71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="E71" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0">
         <v>3102368</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D72" s="2">
         <v>30</v>
       </c>
-      <c r="G72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="E72" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0">
         <v>3102369</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2">
         <v>300</v>
       </c>
-      <c r="G73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="E73" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" ht="30">
+      <c r="A74" s="0">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0">
         <v>3102370</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D74" s="2">
         <v>3</v>
       </c>
-      <c r="G74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="E74" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" ht="30">
+      <c r="A75" s="0">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0">
         <v>3102371</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2">
         <v>5</v>
       </c>
-      <c r="G75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="E75" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" ht="30">
+      <c r="A76" s="0">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0">
         <v>3102372</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D76" s="2">
         <v>8</v>
       </c>
-      <c r="G76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="E76" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" ht="30">
+      <c r="A77" s="0">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0">
         <v>3102373</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D77" s="2">
         <v>6</v>
       </c>
-      <c r="G77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="E77" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" ht="30">
+      <c r="A78" s="0">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0">
         <v>3102374</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D78" s="2">
         <v>15</v>
       </c>
-      <c r="G78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="E78" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0">
         <v>3102375</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D79" s="2">
         <v>10</v>
       </c>
-      <c r="G79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="E79" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" ht="30">
+      <c r="A80" s="0">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0">
         <v>3102376</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D80" s="2">
         <v>40</v>
       </c>
-      <c r="G80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="E80" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0">
         <v>3102377</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D81" s="2">
         <v>35</v>
       </c>
-      <c r="G81" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="E81" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" ht="30">
+      <c r="A82" s="0">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0">
         <v>3102378</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D82" s="2">
         <v>4</v>
       </c>
-      <c r="G82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="E82" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0">
         <v>3102379</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D83" s="2">
         <v>15</v>
       </c>
-      <c r="G83" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="E83" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" ht="60">
+      <c r="A84" s="0">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0">
         <v>3102380</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D84" s="2">
         <v>4065</v>
       </c>
-      <c r="E84" t="s">
-        <v>199</v>
-      </c>
-      <c r="F84" t="s">
-        <v>199</v>
-      </c>
-      <c r="G84" s="2">
-        <v>6.37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="E84" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" ht="105">
+      <c r="A85" s="0">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0">
         <v>3102381</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D85" s="2">
         <v>1210</v>
       </c>
-      <c r="G85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="E85" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" ht="75">
+      <c r="A86" s="0">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0">
         <v>3102382</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D86" s="2">
         <v>2320</v>
       </c>
-      <c r="G86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="E86" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0">
         <v>3102383</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D87" s="2">
         <v>15</v>
       </c>
-      <c r="G87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="E87" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0">
         <v>3102384</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D88" s="2">
         <v>5000</v>
       </c>
-      <c r="E88" t="s">
-        <v>200</v>
-      </c>
-      <c r="F88" t="s">
-        <v>200</v>
-      </c>
-      <c r="G88" s="2">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="E88" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" ht="30">
+      <c r="A89" s="0">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0">
         <v>3102385</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D89" s="2">
         <v>5300</v>
       </c>
-      <c r="G89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="E89" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0">
         <v>3102386</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D90" s="2">
         <v>10</v>
       </c>
-      <c r="G90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="E90" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" ht="45">
+      <c r="A91" s="0">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0">
         <v>3102387</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D91" s="2">
         <v>540</v>
       </c>
-      <c r="G91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="E91" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" ht="45">
+      <c r="A92" s="0">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0">
         <v>3102388</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D92" s="2">
         <v>300</v>
       </c>
-      <c r="G92" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="E92" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" ht="120">
+      <c r="A93" s="0">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0">
         <v>3102389</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D93" s="2">
         <v>63</v>
       </c>
-      <c r="G93" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="E93" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" ht="30">
+      <c r="A94" s="0">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0">
         <v>3102390</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D94" s="2">
         <v>56</v>
       </c>
-      <c r="G94" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="E94" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" ht="30">
+      <c r="A95" s="0">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0">
         <v>3102391</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D95" s="2">
         <v>1620</v>
       </c>
-      <c r="G95" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="E95" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" ht="120">
+      <c r="A96" s="0">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0">
         <v>3102392</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D96" s="2">
         <v>2100</v>
       </c>
-      <c r="G96" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="E96" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0">
         <v>3102393</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D97" s="2">
         <v>8</v>
       </c>
-      <c r="G97" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="E97" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0">
         <v>3102394</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D98" s="2">
         <v>30</v>
       </c>
-      <c r="G98" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="E98" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0">
         <v>3102395</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D99" s="2">
         <v>22</v>
       </c>
-      <c r="G99" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="E99" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0">
         <v>3102396</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D100" s="2">
         <v>38</v>
       </c>
-      <c r="G100" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="E100" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" ht="30">
+      <c r="A101" s="0">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0">
         <v>3102397</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D101" s="2">
         <v>252</v>
       </c>
-      <c r="G101" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="E101" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0">
         <v>3102398</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D102" s="2">
         <v>10000</v>
       </c>
-      <c r="E102" t="s">
-        <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>201</v>
-      </c>
-      <c r="G102" s="2">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="E102" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0">
         <v>3102399</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D103" s="2">
         <v>10000</v>
       </c>
-      <c r="E103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>201</v>
-      </c>
-      <c r="G103" s="2">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="E103" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" ht="150">
+      <c r="A104" s="0">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0">
         <v>3102400</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D104" s="2">
         <v>1150</v>
       </c>
-      <c r="E104" t="s">
-        <v>183</v>
-      </c>
-      <c r="F104" t="s">
-        <v>183</v>
-      </c>
-      <c r="G104" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="E104" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" ht="135">
+      <c r="A105" s="0">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0">
         <v>3102401</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D105" s="2">
         <v>2650</v>
       </c>
-      <c r="E105" t="s">
-        <v>183</v>
-      </c>
-      <c r="F105" t="s">
-        <v>183</v>
-      </c>
-      <c r="G105" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="E105" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" ht="150">
+      <c r="A106" s="0">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0">
         <v>3102402</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D106" s="2">
         <v>2550</v>
       </c>
-      <c r="E106" t="s">
-        <v>183</v>
-      </c>
-      <c r="F106" t="s">
-        <v>183</v>
-      </c>
-      <c r="G106" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="E106" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" ht="135">
+      <c r="A107" s="0">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0">
         <v>3102403</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D107" s="2">
         <v>1100</v>
       </c>
-      <c r="E107" t="s">
-        <v>183</v>
-      </c>
-      <c r="F107" t="s">
-        <v>183</v>
-      </c>
-      <c r="G107" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="E107" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" ht="135">
+      <c r="A108" s="0">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0">
         <v>3102404</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D108" s="2">
         <v>700</v>
       </c>
-      <c r="E108" t="s">
-        <v>183</v>
-      </c>
-      <c r="F108" t="s">
-        <v>183</v>
-      </c>
-      <c r="G108" s="2">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="E108" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" ht="165">
+      <c r="A109" s="0">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0">
         <v>3102405</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D109" s="2">
         <v>1350</v>
       </c>
-      <c r="E109" t="s">
-        <v>183</v>
-      </c>
-      <c r="F109" t="s">
-        <v>183</v>
-      </c>
-      <c r="G109" s="2">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="E109" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" ht="165">
+      <c r="A110" s="0">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0">
         <v>3102406</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D110" s="2">
         <v>3750</v>
       </c>
-      <c r="E110" t="s">
-        <v>183</v>
-      </c>
-      <c r="F110" t="s">
-        <v>183</v>
-      </c>
-      <c r="G110" s="2">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="E110" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" ht="165">
+      <c r="A111" s="0">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0">
         <v>3102407</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D111" s="2">
         <v>3040</v>
       </c>
-      <c r="E111" t="s">
-        <v>183</v>
-      </c>
-      <c r="F111" t="s">
-        <v>183</v>
-      </c>
-      <c r="G111" s="2">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="E111" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" ht="165">
+      <c r="A112" s="0">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0">
         <v>3102408</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D112" s="2">
         <v>1400</v>
       </c>
-      <c r="E112" t="s">
-        <v>183</v>
-      </c>
-      <c r="F112" t="s">
-        <v>183</v>
-      </c>
-      <c r="G112" s="2">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="E112" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" ht="45">
+      <c r="A113" s="0">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0">
         <v>3102409</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D113" s="2">
         <v>80</v>
       </c>
-      <c r="E113" t="s">
-        <v>183</v>
-      </c>
-      <c r="F113" t="s">
-        <v>183</v>
-      </c>
-      <c r="G113" s="2">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="E113" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" ht="120">
+      <c r="A114" s="0">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0">
         <v>3102410</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D114" s="2">
         <v>40</v>
       </c>
-      <c r="G114" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="E114" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" ht="45">
+      <c r="A115" s="0">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0">
         <v>3102411</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D115" s="2">
         <v>2800</v>
       </c>
-      <c r="E115" t="s">
-        <v>202</v>
-      </c>
-      <c r="F115" t="s">
-        <v>202</v>
-      </c>
-      <c r="G115" s="2">
-        <v>7.54</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="E115" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" ht="105">
+      <c r="A116" s="0">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0">
         <v>3102412</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D116" s="2">
         <v>100</v>
       </c>
-      <c r="G116" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="E116" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" ht="90">
+      <c r="A117" s="0">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0">
         <v>3102413</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D117" s="2">
         <v>106</v>
       </c>
-      <c r="G117" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="E117" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" ht="120">
+      <c r="A118" s="0">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0">
         <v>3102414</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D118" s="2">
         <v>4000</v>
       </c>
-      <c r="E118" t="s">
-        <v>203</v>
-      </c>
-      <c r="F118" t="s">
-        <v>203</v>
-      </c>
-      <c r="G118" s="2">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="E118" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0">
         <v>3102415</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D119" s="2">
         <v>320</v>
       </c>
-      <c r="E119" t="s">
-        <v>204</v>
-      </c>
-      <c r="F119" t="s">
-        <v>204</v>
-      </c>
-      <c r="G119" s="2">
-        <v>167.7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="E119" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" ht="45">
+      <c r="A120" s="0">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0">
         <v>3102416</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D120" s="2">
         <v>5</v>
       </c>
-      <c r="G120" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="E120" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" ht="45">
+      <c r="A121" s="0">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0">
         <v>3102417</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D121" s="2">
         <v>5</v>
       </c>
-      <c r="G121" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="E121" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0">
         <v>3102418</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D122" s="2">
         <v>300</v>
       </c>
-      <c r="G122" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="E122" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" ht="30">
+      <c r="A123" s="0">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0">
         <v>3102419</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D123" s="2">
         <v>10</v>
       </c>
-      <c r="G123" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="E123" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" ht="30">
+      <c r="A124" s="0">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0">
         <v>3102420</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D124" s="2">
         <v>96</v>
       </c>
-      <c r="G124" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="E124" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" ht="30">
+      <c r="A125" s="0">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0">
         <v>3102421</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D125" s="2">
         <v>96</v>
       </c>
-      <c r="G125" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="E125" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0">
         <v>3102422</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D126" s="2">
         <v>70000</v>
       </c>
-      <c r="G126" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="E126" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" ht="60">
+      <c r="A127" s="0">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0">
         <v>3102423</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D127" s="2">
         <v>2350</v>
       </c>
-      <c r="G127" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="E127" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" ht="45">
+      <c r="A128" s="0">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0">
         <v>3102424</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D128" s="2">
         <v>80</v>
       </c>
-      <c r="G128" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="E128" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" ht="60">
+      <c r="A129" s="0">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0">
         <v>3102425</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D129" s="2">
         <v>10</v>
       </c>
-      <c r="G129" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="E129" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" ht="60">
+      <c r="A130" s="0">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0">
         <v>3102426</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D130" s="2">
         <v>24</v>
       </c>
-      <c r="G130" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="E130" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" ht="60">
+      <c r="A131" s="0">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0">
         <v>3102427</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D131" s="2">
         <v>24</v>
       </c>
-      <c r="G131" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="E131" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" ht="75">
+      <c r="A132" s="0">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0">
         <v>3102428</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D132" s="2">
         <v>1300</v>
       </c>
-      <c r="G132" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="E132" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" ht="30">
+      <c r="A133" s="0">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0">
         <v>3102429</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D133" s="2">
         <v>15000</v>
       </c>
-      <c r="E133" t="s">
-        <v>205</v>
-      </c>
-      <c r="F133" t="s">
-        <v>205</v>
-      </c>
-      <c r="G133" s="2">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="E133" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" ht="30">
+      <c r="A134" s="0">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0">
         <v>3102430</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D134" s="2">
         <v>25000</v>
       </c>
-      <c r="E134" t="s">
-        <v>205</v>
-      </c>
-      <c r="F134" t="s">
-        <v>205</v>
-      </c>
-      <c r="G134" s="2">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="E134" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" ht="30">
+      <c r="A135" s="0">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0">
         <v>3102431</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D135" s="2">
         <v>20000</v>
       </c>
-      <c r="E135" t="s">
-        <v>205</v>
-      </c>
-      <c r="F135" t="s">
-        <v>205</v>
-      </c>
-      <c r="G135" s="2">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="E135" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" ht="195">
+      <c r="A136" s="0">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0">
         <v>3102432</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D136" s="2">
         <v>50800</v>
       </c>
-      <c r="E136" t="s">
-        <v>182</v>
-      </c>
-      <c r="F136" t="s">
-        <v>182</v>
-      </c>
-      <c r="G136" s="2">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="E136" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" ht="195">
+      <c r="A137" s="0">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0">
         <v>3102433</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D137" s="2">
         <v>21500</v>
       </c>
-      <c r="E137" t="s">
-        <v>182</v>
-      </c>
-      <c r="F137" t="s">
-        <v>182</v>
-      </c>
-      <c r="G137" s="2">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="E137" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" ht="195">
+      <c r="A138" s="0">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0">
         <v>3102434</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D138" s="2">
         <v>31200</v>
       </c>
-      <c r="E138" t="s">
-        <v>182</v>
-      </c>
-      <c r="F138" t="s">
-        <v>182</v>
-      </c>
-      <c r="G138" s="2">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="E138" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" ht="195">
+      <c r="A139" s="0">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0">
         <v>3102435</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D139" s="2">
         <v>52800</v>
       </c>
-      <c r="E139" t="s">
-        <v>182</v>
-      </c>
-      <c r="F139" t="s">
-        <v>182</v>
-      </c>
-      <c r="G139" s="2">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="E139" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" ht="195">
+      <c r="A140" s="0">
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0">
         <v>3102436</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D140" s="2">
         <v>48500</v>
       </c>
-      <c r="E140" t="s">
-        <v>182</v>
-      </c>
-      <c r="F140" t="s">
-        <v>182</v>
-      </c>
-      <c r="G140" s="2">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="E140" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0">
         <v>3102437</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D141" s="2">
         <v>3000</v>
       </c>
-      <c r="G141" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="E141" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0">
         <v>3102438</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D142" s="2">
         <v>1000</v>
       </c>
-      <c r="G142" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="E142" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" ht="30">
+      <c r="A143" s="0">
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0">
         <v>3102439</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D143" s="2">
         <v>144</v>
       </c>
-      <c r="G143" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="E143" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" ht="45">
+      <c r="A144" s="0">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0">
         <v>3102440</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D144" s="2">
         <v>800</v>
       </c>
-      <c r="E144" t="s">
-        <v>206</v>
-      </c>
-      <c r="F144" t="s">
-        <v>206</v>
-      </c>
-      <c r="G144" s="2">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="E144" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0">
         <v>3102441</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D145" s="2">
         <v>6</v>
       </c>
-      <c r="G145" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="E145" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0">
         <v>3102442</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D146" s="2">
         <v>4</v>
       </c>
-      <c r="G146" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="E146" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" ht="165">
+      <c r="A147" s="0">
         <v>146</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0">
         <v>3102443</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D147" s="2">
         <v>120</v>
       </c>
-      <c r="G147" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="E147" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" ht="165">
+      <c r="A148" s="0">
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0">
         <v>3102444</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D148" s="2">
         <v>300</v>
       </c>
-      <c r="G148" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="E148" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" ht="165">
+      <c r="A149" s="0">
         <v>148</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0">
         <v>3102445</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D149" s="2">
         <v>300</v>
       </c>
-      <c r="G149" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="E149" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
         <v>149</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0">
         <v>3102446</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D150" s="2">
         <v>22000</v>
       </c>
-      <c r="G150" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="E150" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0">
         <v>3102447</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D151" s="2">
         <v>10</v>
       </c>
-      <c r="G151" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="E151" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0">
         <v>3102448</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D152" s="2">
         <v>12</v>
       </c>
-      <c r="G152" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="E152" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
         <v>152</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0">
         <v>3102449</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D153" s="2">
         <v>16</v>
       </c>
-      <c r="G153" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="E153" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
         <v>153</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0">
         <v>3102450</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D154" s="2">
         <v>24</v>
       </c>
-      <c r="G154" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="E154" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
         <v>154</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0">
         <v>3102451</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D155" s="2">
         <v>18</v>
       </c>
-      <c r="G155" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="E155" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" ht="45">
+      <c r="A156" s="0">
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0">
         <v>3102452</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D156" s="2">
         <v>1000</v>
       </c>
-      <c r="G156" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="E156" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" ht="45">
+      <c r="A157" s="0">
         <v>156</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0">
         <v>3102453</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D157" s="2">
         <v>1000</v>
       </c>
-      <c r="G157" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="E157" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" ht="45">
+      <c r="A158" s="0">
         <v>157</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0">
         <v>3102454</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D158" s="2">
         <v>20000</v>
       </c>
-      <c r="E158" t="s">
-        <v>207</v>
-      </c>
-      <c r="F158" t="s">
-        <v>207</v>
-      </c>
-      <c r="G158" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="E158" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" ht="45">
+      <c r="A159" s="0">
         <v>158</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0">
         <v>3102455</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D159" s="2">
         <v>30000</v>
       </c>
-      <c r="E159" t="s">
-        <v>207</v>
-      </c>
-      <c r="F159" t="s">
-        <v>207</v>
-      </c>
-      <c r="G159" s="2">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="E159" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" ht="45">
+      <c r="A160" s="0">
         <v>159</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0">
         <v>3102456</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D160" s="2">
         <v>30000</v>
       </c>
-      <c r="E160" t="s">
-        <v>207</v>
-      </c>
-      <c r="F160" t="s">
-        <v>207</v>
-      </c>
-      <c r="G160" s="2">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="E160" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" ht="45">
+      <c r="A161" s="0">
         <v>160</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0">
         <v>3102457</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D161" s="2">
         <v>2000</v>
       </c>
-      <c r="G161" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="E161" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" ht="45">
+      <c r="A162" s="0">
         <v>161</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0">
         <v>3102458</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D162" s="2">
         <v>1500</v>
       </c>
-      <c r="G162" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="E162" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
         <v>162</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0">
         <v>3102459</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D163" s="2">
         <v>400</v>
       </c>
-      <c r="G163" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="E163" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
         <v>163</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0">
         <v>3102460</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D164" s="2">
         <v>300</v>
       </c>
-      <c r="G164" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="E164" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" ht="90">
+      <c r="A165" s="0">
         <v>164</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0">
         <v>3102461</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D165" s="2">
         <v>150</v>
       </c>
-      <c r="G165" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="E165" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" ht="45">
+      <c r="A166" s="0">
         <v>165</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0">
         <v>3102462</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D166" s="2">
         <v>22</v>
       </c>
-      <c r="G166" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="E166" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" ht="30">
+      <c r="A167" s="0">
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0">
         <v>3102463</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D167" s="2">
         <v>30</v>
       </c>
-      <c r="G167" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="E167" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" ht="60">
+      <c r="A168" s="0">
         <v>167</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0">
         <v>3102464</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D168" s="2">
         <v>550</v>
       </c>
-      <c r="G168" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="E168" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
         <v>168</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0">
         <v>3102465</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D169" s="2">
         <v>100</v>
       </c>
-      <c r="E169" t="s">
-        <v>190</v>
-      </c>
-      <c r="F169" t="s">
-        <v>190</v>
-      </c>
-      <c r="G169" s="2">
-        <v>5.23</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="E169" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
         <v>169</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0">
         <v>3102466</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D170" s="2">
         <v>10</v>
       </c>
-      <c r="G170" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="E170" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
         <v>170</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0">
         <v>3102467</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D171" s="2">
         <v>7000</v>
       </c>
-      <c r="E171" t="s">
-        <v>208</v>
-      </c>
-      <c r="F171" t="s">
-        <v>208</v>
-      </c>
-      <c r="G171" s="2">
-        <v>6.03</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="E171" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" ht="75">
+      <c r="A172" s="0">
         <v>171</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0">
         <v>3102468</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D172" s="2">
         <v>2030</v>
       </c>
-      <c r="G172" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="E172" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" ht="90">
+      <c r="A173" s="0">
         <v>172</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0">
         <v>3102469</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D173" s="2">
         <v>50</v>
       </c>
-      <c r="G173" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="E173" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" ht="60">
+      <c r="A174" s="0">
         <v>173</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0">
         <v>3102470</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D174" s="2">
         <v>390</v>
       </c>
-      <c r="E174" t="s">
-        <v>183</v>
-      </c>
-      <c r="F174" t="s">
-        <v>183</v>
-      </c>
-      <c r="G174" s="2">
-        <v>14.17</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="E174" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
         <v>174</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0">
         <v>3102471</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D175" s="2">
         <v>6</v>
       </c>
-      <c r="G175" s="2">
-        <v>0</v>
+      <c r="E175" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/PropProAssistant/Test/WorksheetModels/LicitaNet/LN_02.xlsx
+++ b/PropProAssistant/Test/WorksheetModels/LicitaNet/LN_02.xlsx
@@ -15,12 +15,12 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="182">
   <si>
     <t>LOTE</t>
   </si>
@@ -61,10 +61,10 @@
     <t>AGUA OXIGENADA VOL. 10 C/ 1000ML</t>
   </si>
   <si>
-    <t xml:space="preserve">AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADA, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 25 X 08 MM, EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA.  (CX C/ 100 UND).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 13 X 4,5 MM , EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA. (CX C/ 100 UND)</t>
+    <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADA, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 25 X 08 MM, EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA.  (CX C/ 100 UND).</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 13 X 4,5 MM , EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA. (CX C/ 100 UND)</t>
   </si>
   <si>
     <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 20 X 5,5 MM , EMBALADO EM TUBO TIPO 'HARDPACK' INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA, ).</t>
@@ -73,16 +73,16 @@
     <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 25 X 06 MM , EMBALADO EM TUBO TIPO 'HARDPACK' INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA.</t>
   </si>
   <si>
-    <t xml:space="preserve">AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 25 X 07 MM , EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA. (CX C/ 100 UND)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO,COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 40 X 12MM , EMBALADO EM TUBO TIPO  HARDPACK INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA,(CX C/ 100 UND).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALCOOL ABSOLUTO 99,3%  FRASCO COM 1.000 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALCOOL ETILICO HIDRATADO 62,4° - ALCOOL 70%, FRASCO COM  1000 ML-ME</t>
+    <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO, COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 25 X 07 MM , EMBALADO EM TUBO TIPO  HARDPACK  INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA. (CX C/ 100 UND)</t>
+  </si>
+  <si>
+    <t>AGULHA HIPODERMICA DESCARTAVEL BIPOLAR - EM ACO INOXIDAVEL, PAREDE FINA, SILICONIZADO,COM BISEL MEDIO TRIFACETADO COM PROTETOR DE ENCAIXE FIRME, COM PERFEITA ADAPTACAO AO CANHAO, DIMENSAO DE 40 X 12MM , EMBALADO EM TUBO TIPO  HARDPACK INDIVIDUAL, ESTERIL, CONTENDO DADOS DE IDENTIFICACAO E PROCEDENCIA,(CX C/ 100 UND).</t>
+  </si>
+  <si>
+    <t>ALCOOL ABSOLUTO 99,3%  FRASCO COM 1.000 ML</t>
+  </si>
+  <si>
+    <t>ALCOOL ETILICO HIDRATADO 62,4° - ALCOOL 70%, FRASCO COM  1000 ML-ME</t>
   </si>
   <si>
     <t>ALENDRONATO DE SODIO 10 MG.</t>
@@ -109,7 +109,7 @@
     <t>ATADURA DE CREPE, MEDINDO 06 CM DE LARGURA X 4,5 M DE COMPRIMENTO, NA COR NATURAL, COM 13 FIOS POR CM2, NAO ESTERIL, 100% ALGODAO, RETORCIDOS PROPORCIONANDO ELASTICIDADE E RESISTENCIA, ACONDICIONADAS EM PACOTES COM 12 UNIDADES.</t>
   </si>
   <si>
-    <t xml:space="preserve">ATADURA DE CREPE, MEDINDO 08 CM DE LARGURA X 4,5 M DE COMPRIMENTO, NA COR NATURAL,  COM    13  FIOS   POR    CM2, NAO ESTERIL, 100% ALGODAO, RETORCIDOS PROPORCIONANDO ELASTICIDADE E RESISTENCIA, ACONDICIONADAS EM PACOTES COM 12 UNIDADES.</t>
+    <t>ATADURA DE CREPE, MEDINDO 08 CM DE LARGURA X 4,5 M DE COMPRIMENTO, NA COR NATURAL,  COM    13  FIOS   POR    CM2, NAO ESTERIL, 100% ALGODAO, RETORCIDOS PROPORCIONANDO ELASTICIDADE E RESISTENCIA, ACONDICIONADAS EM PACOTES COM 12 UNIDADES.</t>
   </si>
   <si>
     <t>ATADURA DE CREPE, MEDINDO 10 CM DE LARGURA X 4,5 M DE COMPRIMENTO, NA COR NATURAL, COM 13 FIOS POR CM2, NAO ESTERIL, 100% ALGODAO, RETORCIDOS PROPORCIONANDO ELASTICIDADE E RESISTENCIA, ACONDICIONADAS EM PACOTES COM 12 UNIDADES.</t>
@@ -136,7 +136,7 @@
     <t>BISNAGA DE 100 ML A BASE DE ALCOOL ETILICO 70%, INDICADO PARA HIGIENIZACAO DE PELE. COMPOSICAO: AGUA, ALCOOL ETILICO, GLICEROL E BENZOATO DE DENATONIO.</t>
   </si>
   <si>
-    <t xml:space="preserve">CANULA DE TRAQUEOSTOMIA DESCARTAVEL COM BALAO N  7,5</t>
+    <t>CANULA DE TRAQUEOSTOMIA DESCARTAVEL COM BALAO N  7,5</t>
   </si>
   <si>
     <t>CANULA PARA TRAQUEOSTOMIA ,EM ACO INOXIDAVEL N°6,LONGA,100 MM</t>
@@ -151,13 +151,13 @@
     <t>CARVAO ATIVADO ,PACOTE 1 KG</t>
   </si>
   <si>
-    <t xml:space="preserve">CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,20G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 22G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,22G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 24G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,24G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 24G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
+    <t>CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,20G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 22G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
+  </si>
+  <si>
+    <t>CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,22G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 24G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
+  </si>
+  <si>
+    <t>CATETER INTRA VENOSO PERIFERICO DO TIPO  POR-FORA-DA-AGULHA ,24G 1.77  CONSTITUIDO POR: AGULHA SILICONIZADA C/ BISEL BI-ANGULADO E TRIFACETADO CATETER(OU CANULA) EM BIOMATERIAL TEFLON,PROTETOR DO CONJUNTO AGULHA/CATETER, CONECTOR LUER-LOK,TRANSLUCIDO NA COR CINZA E COM RANHURAS P/ FIXACAO, CAMARA DE REFLUXO EM  CRISTAL, TAMPA/FILTRO DA CAMARA DE REFLUXO DO TIPO  BIO-SELETIVO , PERIFERICA, P/ INFUSOES DE MEDIA DURACAO,COMPRIMENTO DO CATETER 4,5CM, DIAMETRO EXTERNO 1,7MM, CALIBRE DA AGULHA 24G,EMB. INDIV.EM BLISTER ESTERIL E REEMBALADO EM CAIXA COM 100 PECAS.</t>
   </si>
   <si>
     <t>CLOBAZAM 10MG COMP.</t>
@@ -181,13 +181,13 @@
     <t>COMPRESSA DE GAZE HIDROFILA (7,5 X 7,5), CONFECCIONADA COM 13 FIOS, COR BRANCA,BORDAS DEVIDAMENTE VOLTADAS PARA DENTRO, EMBALAGEM EM PACOTE PLASTICO COM 500 UNIDADES.</t>
   </si>
   <si>
-    <t xml:space="preserve">COMPRESSA DE GAZE HIDROFILA  TIPO CAMPO OPERATORIO, 45 X 50CM , DESCARTAVEL, NAO ESTERIL, 100% ALGODAO, ALTA ABSORCAO, COM  CADARCO.PACOTE COM 50 UNIDADES.</t>
+    <t>COMPRESSA DE GAZE HIDROFILA  TIPO CAMPO OPERATORIO, 45 X 50CM , DESCARTAVEL, NAO ESTERIL, 100% ALGODAO, ALTA ABSORCAO, COM  CADARCO.PACOTE COM 50 UNIDADES.</t>
   </si>
   <si>
     <t>COMPRESSA DE GAZE HIDROFILA CIRURGICA 45X50CM - TIPO CAMPO OPERATORIO, 45X50CM,DESCARTAVEL, NAO ESTERIL, 100% ALGODAO, ALTA ABSORCAO, COM CADARCO, EMBALAGEM: PACOTE C/ 50 UNIDADES.</t>
   </si>
   <si>
-    <t xml:space="preserve">DESINCRUSTANTE  DETERGENTE CONCENTRADO COM ALTO TEOR PODER DISSOLVENTE, EMULSIONANTE E DISPERSANTE, COM REGISTRO NO MINISTERIO DA SAUDE.PACOTE COM 1000G</t>
+    <t>DESINCRUSTANTE  DETERGENTE CONCENTRADO COM ALTO TEOR PODER DISSOLVENTE, EMULSIONANTE E DISPERSANTE, COM REGISTRO NO MINISTERIO DA SAUDE.PACOTE COM 1000G</t>
   </si>
   <si>
     <t>DESLANOSIDEO 0,2 MG/ML SOLUCAO INJETAVEL ,AMPOLA DE 2ML.</t>
@@ -205,7 +205,7 @@
     <t>EQUIPO PARA ALIMENTACAO ENTERAL</t>
   </si>
   <si>
-    <t xml:space="preserve">EQUIPO PARA SORO MACRO GOTAS FLEXIVEL TRANSPARENTE COM INJETOR LATERAL ANTI-REFLUXO, CONTENDO COPO DE NIVEL INCOLOR, EM MATERIAL FLEXIVEL,TRANSPARENTE, COM RESPIRO, BICO BISELADO   PROTEGIDO   POR    TAMPA,  COM PINCA ROLETE MULTIREGULAVEL,E CONECTOR PARA SCALP</t>
+    <t>EQUIPO PARA SORO MACRO GOTAS FLEXIVEL TRANSPARENTE COM INJETOR LATERAL ANTI-REFLUXO, CONTENDO COPO DE NIVEL INCOLOR, EM MATERIAL FLEXIVEL,TRANSPARENTE, COM RESPIRO, BICO BISELADO   PROTEGIDO   POR    TAMPA,  COM PINCA ROLETE MULTIREGULAVEL,E CONECTOR PARA SCALP</t>
   </si>
   <si>
     <t>EQUIPO PARA SORO MICRO GOTAS FLEXIVEL TRANSPARENTE COM INJETOR LATERAL ANTI-REFLUXO, CONTENDO COPO DE NIVEL INCOLOR, EM MATERIAL FLEXIVEL, TRANSPARENTE, COM RESPIRO, BICO BISELADO PROTEGIDO POR TAMPA, COM PINCA ROLETE MULTIRREGULAVEL, E CONECTOR PARA SCALP. CAIXA COM 250 UNIDADES.</t>
@@ -217,13 +217,13 @@
     <t>ESCOVA PARA COLETA CERVICAL</t>
   </si>
   <si>
-    <t xml:space="preserve">ESFIGMOMANOMETRO - BRACADEIRA PARA OBESO, ALTAMENTE RESISTENTE A CHOQUES E DESREGULAGEM, GRADUACAO DE 0 A 300 MM HG., BRACADEIRA ADULTO BRIM  METAL COM MANGUITODOIS TUBOS, CIRCUNFERENCIA 41 CM A 51 CM. COM REGISTRO NO MINISTERIO DA SAUDE.</t>
+    <t>ESFIGMOMANOMETRO - BRACADEIRA PARA OBESO, ALTAMENTE RESISTENTE A CHOQUES E DESREGULAGEM, GRADUACAO DE 0 A 300 MM HG., BRACADEIRA ADULTO BRIM  METAL COM MANGUITODOIS TUBOS, CIRCUNFERENCIA 41 CM A 51 CM. COM REGISTRO NO MINISTERIO DA SAUDE.</t>
   </si>
   <si>
     <t>ESFIGMOMANOMETRO ADULTO ANEROIDE,PORTATIL ,COM PINTURA TEXTURIZADA ,APOS TRATAMENTO ATIFERRUGEM ,COM VISOR GRADUADO DE 0 A 300 MMHG,PRECISO E DE FACIL LEITURA ,COM PERA BOLSA DE AR E TUBOS CONECTORES EM BORRACHA ,SEM EMENDAS ,COM MANGUITO DE BORRACHA SINTETICA ,EM BRACADEIRA DE NYLON ,FECHO DE VELCRO,COM APROVACAO E CALIBRACAO DO INMETRO .ACOMPANHA ESTETOSCOPIO.</t>
   </si>
   <si>
-    <t xml:space="preserve">ESFIGMOMANOMETRO COM ESTETOSCOPIO ADULTO, ALTAMENTE RESISTENTE A CHOQUES E DESREGULAGEM, GRADUACAO DE 0 A300 MM HG., BRACADEIRA ADULTO BRIM  METAL COM MANGUITODOIS TUBOS, CIRCUNFERENCIA 22CM A 34 CM. COM REGISTRO NO MINISTERIO DA SAUDE.</t>
+    <t>ESFIGMOMANOMETRO COM ESTETOSCOPIO ADULTO, ALTAMENTE RESISTENTE A CHOQUES E DESREGULAGEM, GRADUACAO DE 0 A300 MM HG., BRACADEIRA ADULTO BRIM  METAL COM MANGUITODOIS TUBOS, CIRCUNFERENCIA 22CM A 34 CM. COM REGISTRO NO MINISTERIO DA SAUDE.</t>
   </si>
   <si>
     <t>ESFIGMOMANOMETRO DIGITAL DE BRACO - MONITOR DE PRESSAO AUTOMATICO DE BRACO, INDICADOR DE HIPERTENSAO, ADAPTA-SE A UMA CIRCUNFERENCIA DE BRACO DE 220 MM A 420 MM, VALVULA DE LIBERACAO AUTOMATICA DE PRESSAO, LIBERACAO RAPIDA DE AR: VALVULA DELIBERACAO AUTOMATICA, METODO OSCILOMETRICO, MEMORIA: ATE 30 LEITURAS. ESPECIFICACOES TECNICAS: DETECTA BATIMENTOS CARDIACOS IRREGULARES, CONTROLE DE INFLACAO,INDICADOR DE HIPERTENSAO, ATIVACAO AO TOQUE DE UM BOTAO, BRACADEIRA ERGONOMICA,REGISTRO ANVISA, VISOR DIGITALLCD.</t>
@@ -241,7 +241,7 @@
     <t>ESPATULAS DE MADEIRA  ABAIXADOR DE LINGUA (ESPATULA DE MADEIRA) DESCARTAVEL, FORMATO CONVENCIONAL LISO, SUPERFICIE E BORDAS PERFEITAMENTE ACABADAS,ESPESSURA ELARGURA UNIFORME EM TODA SUA EXTENSAO, MEDINDO APROXIMADAMENTE 14 CM DE COMPRIMENTO, 1,4 CM DE LARGURA,0,5 MM DE ESPESSURA, EMBALADO EM PACOTE COM 100 PECAS, CONSTANDO OS DADOS DE IDENTIFICACAO, PROCEDENCIA, NR, DO LOTE, DATA DE FABRICACAO,MARCA, FABRICANTE, PROCEDENCIA E SER REGISTRADO/NOTIFICADO EM ORGAO COMPETENTE,SE NECESSARIO. PACOTE COM 100 UNIDADES</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPECULO VAGINAL NAO LUBRIFICADO DESCARTAVEL ESTERIL POLIETILENO TAM.  P</t>
+    <t>ESPECULO VAGINAL NAO LUBRIFICADO DESCARTAVEL ESTERIL POLIETILENO TAM.  P</t>
   </si>
   <si>
     <t>ESPECULO VAGINAL NAO LUBRIFICADO DESCARTAVEL ESTERIL POLIETILENO TAM. G</t>
@@ -292,7 +292,7 @@
     <t>FIO MONONYLON 6.0 C/ AGULHA ESTERELIZADA 3CM CX 24UN</t>
   </si>
   <si>
-    <t xml:space="preserve">FITA ADESIVA 25 MM X 10 M  HIPOALERGICA, MICROPOROSA, INDOLOR. FITA CIRURGICA CONSTITUIDADE  RAYON VISCOSO  VISCOSO NAO TRANCADO, SUPERFICIE ADESIVA IMPREGNADADE SUBSTANCIA A BASE DE ETER SINTETICO, QUIMICAMENTE INERTE.</t>
+    <t>FITA ADESIVA 25 MM X 10 M  HIPOALERGICA, MICROPOROSA, INDOLOR. FITA CIRURGICA CONSTITUIDADE  RAYON VISCOSO  VISCOSO NAO TRANCADO, SUPERFICIE ADESIVA IMPREGNADADE SUBSTANCIA A BASE DE ETER SINTETICO, QUIMICAMENTE INERTE.</t>
   </si>
   <si>
     <t>FITA ADESIVA PARA AUTOCLAVE, DORSO EM PAPEL CREPADO TRATADO E NA OUTRA FACE ADESIVO ESPECIAL RESISTENTE A ALTAS TEMPERATURAS, DIMENSOES: 18MMX30M, EMBALAGEM: EMBALADAS INDIVIDUALMENTE E ACONDICIONADAS EM SACO PLASTICO, CARACTERISTICAS ADICIONAIS: COM IMPRESSAO NO DORSO DE SINALIZADOR VISUAL QUE INDIQUE PASSAGEM PELO PROCESSO DE ESTERILIZACAO EM AUTOCLAVE(LISTRAS BRANCAS NA DIAGONAL), UNIDADE DE FORNECIMENTO: PACOTE COM UMA UNIDADE.</t>
@@ -319,10 +319,10 @@
     <t>GEL PARA ULTRASSON E ALTA PERFORMANCE BIOGEL.UM GEL DE ALTA PERFORMANCE COM PH BALANCEADO, INODORO, HIDROSSOLUVEL, ISENTO DE SAL, HIPOALERGENICO E COM VISCOSIDADE ADEQUADA , C0M 250GR.</t>
   </si>
   <si>
-    <t xml:space="preserve">INDICADOR BIOLOGICO USADO NA MONITORACAO DE CICLOS DE ESTERILIZACAO DE VAPOR SATURADO, CADA TUBO DE TESTE CONTEM UM DISCO DE ESPOROS DE GEOBACILUS STEAROTHERMOPHISLUS EM MEIO DE CULTURA CONTENDO UMA AMPOLA DE VIDRO COM PURPURA DE BROMOCRESOL COMO INDICADOR DE PH. A PRODUCAO DE ACIDO ASSOCIADA AO CRESCIMENTO ORIGINA A MUDANCA DE COR DO MEIO DE PURPURA PARA AMARELO, FACILITANDO A DETECCAO  DO CRESCIMENTO, COM 100 AMPOLAS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDICADOR QUIMICO  INTERNO COMPLY 1250 MULTIPARAMETRICO PARA VAPOR CONTENDO 250TIRAS DE 1,5 X 20CM OU 240 TIRAS DE 1,5CM X 10CM</t>
+    <t>INDICADOR BIOLOGICO USADO NA MONITORACAO DE CICLOS DE ESTERILIZACAO DE VAPOR SATURADO, CADA TUBO DE TESTE CONTEM UM DISCO DE ESPOROS DE GEOBACILUS STEAROTHERMOPHISLUS EM MEIO DE CULTURA CONTENDO UMA AMPOLA DE VIDRO COM PURPURA DE BROMOCRESOL COMO INDICADOR DE PH. A PRODUCAO DE ACIDO ASSOCIADA AO CRESCIMENTO ORIGINA A MUDANCA DE COR DO MEIO DE PURPURA PARA AMARELO, FACILITANDO A DETECCAO  DO CRESCIMENTO, COM 100 AMPOLAS.</t>
+  </si>
+  <si>
+    <t>INDICADOR QUIMICO  INTERNO COMPLY 1250 MULTIPARAMETRICO PARA VAPOR CONTENDO 250TIRAS DE 1,5 X 20CM OU 240 TIRAS DE 1,5CM X 10CM</t>
   </si>
   <si>
     <t>INFUSOR DE 2 VIAS(INTERMEDIARIO EM Y)- ATOXICO, ESTERIL E APIROGENICO.</t>
@@ -334,13 +334,13 @@
     <t>KIT PARA CONTENCAO DE PACIENTES PARA MAOS, PES E ABDOMEN. S</t>
   </si>
   <si>
-    <t xml:space="preserve">LAMINA DE BISTURI N  15 EM ACO CARBONO CX COM 100 UNIDADES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMINA DE BISTURI N  22 EM ACO CARBONO C/ 100 UNIDADES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMINA DE BISTURI N.  11 EM ACO CARBONO CX COM 100 UNIDADES</t>
+    <t>LAMINA DE BISTURI N  15 EM ACO CARBONO CX COM 100 UNIDADES</t>
+  </si>
+  <si>
+    <t>LAMINA DE BISTURI N  22 EM ACO CARBONO C/ 100 UNIDADES</t>
+  </si>
+  <si>
+    <t>LAMINA DE BISTURI N.  11 EM ACO CARBONO CX COM 100 UNIDADES</t>
   </si>
   <si>
     <t>LAMINA PARA MISCROSCOPIO FOSCA NAO LAPIDADA MED. 26 X 76 MM, ESPESSURA 0,9 A, 1.1MM,TIPOEXTRAFINOFOSCA. CX COM 50 UNIDADES.</t>
@@ -361,7 +361,7 @@
     <t>LUVA CIRURGICA 7,5 CONFECCIONADA EM LATEX, ESTERIL, DESCARTAVEL - LUVA CIRURGICAESTERIL, CONFECCIONADA EM LATEX NATURAL, FORMATO ANATOMICO, FLEXIBILIDADE, RESISTENCIA E SENSIBILIDADE TACTIL ADEQUADAS A SUA FINALIDADE, PUNHO REFORCADO NA BORDA,LUBRIFICADA COM PO BIOABSORVIVEL PELO ORGANISMO, TAMANHO 7,5, EMBALADA EM ENVELOPE GRAU CIRURGICO CONTENDO 1 PAR, SELADO A QUENTE NOS QUATRO LADOS, SENDO QUENO LADO SUPERIOR DEVE POSSUIR ABAS QUE PERMITAM ABERTURA ASSEPTICA DO MATERIAL,OS DADOS DE IDENTIFICACAO DEVERAO SER ESTAMPADOS NA FACE EXTERNA.</t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA CIRURGICA 8.0 CONFECCIONADA EM LATEX, ESTERIL, DESCARTAVEL - LUVA CIRURGICAESTERIL, CONFECCIONADA EM LATEX NATURAL, FORMATO ANATOMICO, FLEXIBILIDADE, RESISTENCIA E SENSIBILIDADE TACTIL ADEQUADAS A SUA FINALIDADE, PUNHO REFORCADO NA BORDA, LUBRIFICADA COM PO BIOABSORVIVEL PELO ORGANISMO, TAMANHO 8,0, EMBALADA EM ENVELOPE GRAU CIRURGICO CONTENDO 1 PAR, SELADO A QUENTE NOS QUATRO LADOS, SENDO QUE NO LADO SUPERIOR DEVE POSSUIR ABAS QUE PERMITAM ABERTURA    ASSEPTICA    DO MATERIAL, OS DADOS DE IDENTIFICACAO DEVERAO SER ESTAMPADOS NA FACE EXTERNA.</t>
+    <t>LUVA CIRURGICA 8.0 CONFECCIONADA EM LATEX, ESTERIL, DESCARTAVEL - LUVA CIRURGICAESTERIL, CONFECCIONADA EM LATEX NATURAL, FORMATO ANATOMICO, FLEXIBILIDADE, RESISTENCIA E SENSIBILIDADE TACTIL ADEQUADAS A SUA FINALIDADE, PUNHO REFORCADO NA BORDA, LUBRIFICADA COM PO BIOABSORVIVEL PELO ORGANISMO, TAMANHO 8,0, EMBALADA EM ENVELOPE GRAU CIRURGICO CONTENDO 1 PAR, SELADO A QUENTE NOS QUATRO LADOS, SENDO QUE NO LADO SUPERIOR DEVE POSSUIR ABAS QUE PERMITAM ABERTURA    ASSEPTICA    DO MATERIAL, OS DADOS DE IDENTIFICACAO DEVERAO SER ESTAMPADOS NA FACE EXTERNA.</t>
   </si>
   <si>
     <t>LUVA CIRURGICA 8.5 CONFECCIONADA EM LATEX, ESTERIL, DESCARTAVEL - LUVA CIRURGICAESTERIL, CONFECCIONADA EM LATEX NATURAL, FORMATO ANATOMICO, FLEXIBILIDADE, RESISTENCIA E SENSIBILIDADE TACTIL ADEQUADAS A SUA FINALIDADE, PUNHO REFORCADO NA BORDA, LUBRIFICADA COM PO BIOABSORVIVEL PELO ORGANISMO, TAMANHO 8,5, EMBALADA EM ENVELOPE GRAU CIRURGICO CONTENDO 1 PAR, SELADO A QUENTE NOS QUATRO LADOS, SENDO QUE NO LADO SUPERIOR DEVE POSSUIR ABAS QUE PERMITAM ABERTURA ASSEPTICA DO MATERIAL, OS DADOS DE IDENTIFICACAO DEVERAO SER ESTAMPADOS NA FACE EXTERNA</t>
@@ -412,7 +412,7 @@
     <t>PRESERVATIVO SEM LUBRIFICACAO PARA USO EM TRANSDUTORES DE APARELHO DE ULTRASSONOGRAFIA. CX C/ 144UNIDADES.</t>
   </si>
   <si>
-    <t xml:space="preserve">PVPI  TOPICO - ANTI-SEPTICO A BASE DE PVPI TOPICO ( POLVIDINE TOPICO ) FRASCO COM 1000 ML .</t>
+    <t>PVPI  TOPICO - ANTI-SEPTICO A BASE DE PVPI TOPICO ( POLVIDINE TOPICO ) FRASCO COM 1000 ML .</t>
   </si>
   <si>
     <t>PVPI DERGERMANTE IODOPOVIDONA (POLIVINIL PIRROLIDONA IODO) - P.V.P.I 10% (1% DEIODO ATIVO), FRASCO COM 1000 ML 1000 ML</t>
@@ -487,7 +487,7 @@
     <t>SONDA FOLLEY 3 VIAS No 16, SONDA FOLLEY 20, BALAO DE 30CC, CONFECCIONADA EM BORRACHA NATURAL, SILICONIZADA, ESTERIL , COM TRES VIAS NAS EXTREMIDADE DISTAL E PROXIMAL (PONTA DEVERA SER ARREDONDADA COM DOIS ORIFICIOS LATERAIS EM LADOS OPOSTOSE NA MESMA ALTURA) CADA SONDA DEVERA APRESENTAR A MARCA COMERCIAL, NUMERO DE CALIBRE E A CAPACIDADE DO BALAO ESTAMPADOS EM LOCAL DE FACIL VISUALIZACAO E DE CARATER PERMANENTE, EMBALADO INDIVIDUALMENTE EM PAPEL GRAU CIRURGICO, NA EMBALAGEMDEVERA CONSTAR OS DADOS DE IDENTIFICACAO, No DO LOTE, DA DATA DE FABRICACAO, MARCA, FABRICANTE, PROCEDENCIA E SER REGISTRADO, NOTIFICADO EM ORGAO COMPETENTE.</t>
   </si>
   <si>
-    <t xml:space="preserve">SONDA FOLLEY 3 VIAS No 18,  BALAO DE 30CC, CONFECCIONADA EM BORRACHA NATURAL, SILICONIZADA, ESTERIL , COM TRES VIAS NAS EXTREMIDADE DISTAL E PROXIMAL (PONTA DEVERA SER ARREDONDADA COM DOIS ORIFICIOS LATERAIS EM LADOS OPOSTOSE NA MESMA ALTURA) CADA SONDA DEVERA APRESENTAR A MARCA COMERCIAL, NUMERO DE CALIBRE E A CAPACIDADE DO BALAO ESTAMPADOS EM LOCAL DE FACIL VISUALIZACAO E DE CARATER PERMANENTE,EMBALADO INDIVIDUALMENTE EM PAPEL GRAU CIRURGICO, NA EMBALAGEMDEVERA CONSTAR OSDADOS DE IDENTIFICACAO, No DO LOTE, DA DATA DE FABRICACAO, MARCA, FABRICANTE, PROCEDENCIA E SER REGISTRADO, NOTIFICADO EM ORGAO COMPETENTE.</t>
+    <t>SONDA FOLLEY 3 VIAS No 18,  BALAO DE 30CC, CONFECCIONADA EM BORRACHA NATURAL, SILICONIZADA, ESTERIL , COM TRES VIAS NAS EXTREMIDADE DISTAL E PROXIMAL (PONTA DEVERA SER ARREDONDADA COM DOIS ORIFICIOS LATERAIS EM LADOS OPOSTOSE NA MESMA ALTURA) CADA SONDA DEVERA APRESENTAR A MARCA COMERCIAL, NUMERO DE CALIBRE E A CAPACIDADE DO BALAO ESTAMPADOS EM LOCAL DE FACIL VISUALIZACAO E DE CARATER PERMANENTE,EMBALADO INDIVIDUALMENTE EM PAPEL GRAU CIRURGICO, NA EMBALAGEMDEVERA CONSTAR OSDADOS DE IDENTIFICACAO, No DO LOTE, DA DATA DE FABRICACAO, MARCA, FABRICANTE, PROCEDENCIA E SER REGISTRADO, NOTIFICADO EM ORGAO COMPETENTE.</t>
   </si>
   <si>
     <t>SONDA PARA ASPIRACAO COM VALVULA No 12 ,EM PVC ESTERIL</t>
@@ -544,7 +544,7 @@
     <t>TETRACAINA,CLORIDRATO+ FENILEFRINA, CLORIDRATO 0,1%SOLUCAO OFTALMICA ESTERIL COM10 ML</t>
   </si>
   <si>
-    <t xml:space="preserve">THREEWAY - TORNEIRINHA 3 VIAS LUER LOCK,  DESCARTAVEL INDICADA PARA PROCEDIMENTOS ENDOVENOSOS, FABRICADA EM POLIMERO POLICARBONATO, ATOXICA, APIROGENICA, DESCARTAVEL E DE USO UNICO, ESTERILIZADA POR OXIDO DE ETILENO, COR TRANSPARENTE.</t>
+    <t>THREEWAY - TORNEIRINHA 3 VIAS LUER LOCK,  DESCARTAVEL INDICADA PARA PROCEDIMENTOS ENDOVENOSOS, FABRICADA EM POLIMERO POLICARBONATO, ATOXICA, APIROGENICA, DESCARTAVEL E DE USO UNICO, ESTERILIZADA POR OXIDO DE ETILENO, COR TRANSPARENTE.</t>
   </si>
   <si>
     <t>TIMOLOL MALEATO 5 MG /ML ,SOLUCAO OFTALMICA.FRASCO COM 5 ML</t>
@@ -556,7 +556,7 @@
     <t>TIORIDAZINA,CLORIDRATO DE 200MG (COMPRIMIDOS RETARD)</t>
   </si>
   <si>
-    <t xml:space="preserve">TIRA REAGENTE P/ DET.DE GLICOSE NO SANGUE -EM PAPEL CREPADO, PARA DETERMINACAO DE GLICOSE NO SANGUE ,ACOMPANHADO DE 03  APARELHOS ESPECIFICO,EMBALAGEM COM 50 TIRAS, EMBALAGEM COM DADOS DE IDENTIFICACAO, PROCEDENCIA, DATAETIPO DE ESTERILIZACAO, VALIDADE NO MINIMO DE 1 ANO E REG. NO MINISTERIO DA SAUDE.AMPLA</t>
+    <t>TIRA REAGENTE P/ DET.DE GLICOSE NO SANGUE -EM PAPEL CREPADO, PARA DETERMINACAO DE GLICOSE NO SANGUE ,ACOMPANHADO DE 03  APARELHOS ESPECIFICO,EMBALAGEM COM 50 TIRAS, EMBALAGEM COM DADOS DE IDENTIFICACAO, PROCEDENCIA, DATAETIPO DE ESTERILIZACAO, VALIDADE NO MINIMO DE 1 ANO E REG. NO MINISTERIO DA SAUDE.AMPLA</t>
   </si>
   <si>
     <t>TIRA REAGENTE P/ DET.DE GLICOSE NO SANGUE -EM PAPEL CREPADO, PARA DETERMINACAO DE GLICOSE NO SANGUE ,ACOMPANHADO DE 50 UNIDADES DE APARELHO ESPECIFICO(DA TIRA),EMBALAGEM COM 50 TIRAS, EMBALAGEM COM DADOS DE IDENTIFICACAO, PROCEDENCIA, DATAETIPO DE ESTERILIZACAO, VALIDADE NO MINIMO DE 1 ANO E REG. NO MINISTERIO DA SAUDE.ME/EPP</t>
@@ -572,8 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -602,11 +601,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,15 +918,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="70" customWidth="1" style="1"/>
+    <col min="3" max="3" width="70" style="1" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -936,10 +935,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -948,11 +947,11 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>3102298</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -961,21 +960,21 @@
       <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>3102299</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -984,21 +983,21 @@
       <c r="D3" s="2">
         <v>1400</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>3102300</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1007,21 +1006,21 @@
       <c r="D4" s="2">
         <v>150</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>3102301</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1030,21 +1029,21 @@
       <c r="D5" s="2">
         <v>150</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>3102302</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1053,21 +1052,21 @@
       <c r="D6" s="2">
         <v>12</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="90">
-      <c r="A7" s="0">
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>3102303</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1076,21 +1075,21 @@
       <c r="D7" s="2">
         <v>378</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="90">
-      <c r="A8" s="0">
+    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>3102304</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1099,21 +1098,21 @@
       <c r="D8" s="2">
         <v>316</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="90">
-      <c r="A9" s="0">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0">
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>3102305</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1122,21 +1121,21 @@
       <c r="D9" s="2">
         <v>250</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="90">
-      <c r="A10" s="0">
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>3102306</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1145,21 +1144,21 @@
       <c r="D10" s="2">
         <v>560</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="90">
-      <c r="A11" s="0">
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>3102307</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1168,21 +1167,21 @@
       <c r="D11" s="2">
         <v>520</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="90">
-      <c r="A12" s="0">
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>3102308</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1191,21 +1190,21 @@
       <c r="D12" s="2">
         <v>315</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>3102309</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1214,21 +1213,21 @@
       <c r="D13" s="2">
         <v>624</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>3102310</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1237,21 +1236,21 @@
       <c r="D14" s="2">
         <v>3125</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>3102311</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1260,21 +1259,21 @@
       <c r="D15" s="2">
         <v>1000</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" ht="120">
-      <c r="A16" s="0">
+    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>3102312</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1283,21 +1282,21 @@
       <c r="D16" s="2">
         <v>524</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>3102313</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1306,21 +1305,21 @@
       <c r="D17" s="2">
         <v>650</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>3102314</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1329,21 +1328,21 @@
       <c r="D18" s="2">
         <v>610</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>3102315</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1352,21 +1351,21 @@
       <c r="D19" s="2">
         <v>4400</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" ht="30">
-      <c r="A20" s="0">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>3102316</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1375,21 +1374,21 @@
       <c r="D20" s="2">
         <v>2200</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>3102317</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1398,21 +1397,21 @@
       <c r="D21" s="2">
         <v>42000</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" ht="60">
-      <c r="A22" s="0">
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>3102318</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1421,21 +1420,21 @@
       <c r="D22" s="2">
         <v>800</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="0" t="s">
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" ht="60">
-      <c r="A23" s="0">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>3102319</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1444,21 +1443,21 @@
       <c r="D23" s="2">
         <v>1010</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="0" t="s">
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="60">
-      <c r="A24" s="0">
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>3102320</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1467,21 +1466,21 @@
       <c r="D24" s="2">
         <v>1850</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" ht="60">
-      <c r="A25" s="0">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>3102321</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1490,21 +1489,21 @@
       <c r="D25" s="2">
         <v>1850</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" ht="60">
-      <c r="A26" s="0">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>3102322</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1513,21 +1512,21 @@
       <c r="D26" s="2">
         <v>1950</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="0" t="s">
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" ht="60">
-      <c r="A27" s="0">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>3102323</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1536,21 +1535,21 @@
       <c r="D27" s="2">
         <v>1350</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
         <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>3102324</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1559,21 +1558,21 @@
       <c r="D28" s="2">
         <v>800</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="0" t="s">
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" ht="45">
-      <c r="A29" s="0">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>3102325</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1582,21 +1581,21 @@
       <c r="D29" s="2">
         <v>1420</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="0" t="s">
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>3102326</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1605,21 +1604,21 @@
       <c r="D30" s="2">
         <v>1400</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="0" t="s">
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" ht="45">
-      <c r="A31" s="0">
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>3102327</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1628,21 +1627,21 @@
       <c r="D31" s="2">
         <v>500</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="0" t="s">
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>3102328</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1651,21 +1650,21 @@
       <c r="D32" s="2">
         <v>10</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="0" t="s">
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>3102329</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1674,21 +1673,21 @@
       <c r="D33" s="2">
         <v>6</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="0" t="s">
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>3102330</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1697,21 +1696,21 @@
       <c r="D34" s="2">
         <v>12</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>3102331</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1720,21 +1719,21 @@
       <c r="D35" s="2">
         <v>15</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="0" t="s">
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>3102332</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1743,21 +1742,21 @@
       <c r="D36" s="2">
         <v>12</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="0" t="s">
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="135">
-      <c r="A37" s="0">
+    <row r="37" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>3102333</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1766,21 +1765,21 @@
       <c r="D37" s="2">
         <v>5</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" ht="135">
-      <c r="A38" s="0">
+    <row r="38" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>3102334</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1789,21 +1788,21 @@
       <c r="D38" s="2">
         <v>30</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="0" t="s">
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" ht="135">
-      <c r="A39" s="0">
+    <row r="39" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>3102335</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1812,21 +1811,21 @@
       <c r="D39" s="2">
         <v>20</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="0" t="s">
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>3102336</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1835,21 +1834,21 @@
       <c r="D40" s="2">
         <v>25000</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="0" t="s">
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>3102337</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1858,21 +1857,21 @@
       <c r="D41" s="2">
         <v>50</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="0" t="s">
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>3102338</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1881,21 +1880,21 @@
       <c r="D42" s="2">
         <v>150</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="0" t="s">
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" ht="135">
-      <c r="A43" s="0">
+    <row r="43" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>3102339</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1904,21 +1903,21 @@
       <c r="D43" s="2">
         <v>800</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="0" t="s">
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" ht="75">
-      <c r="A44" s="0">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>3102340</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1927,21 +1926,21 @@
       <c r="D44" s="2">
         <v>70</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="0" t="s">
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" ht="60">
-      <c r="A45" s="0">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>3102341</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1950,21 +1949,21 @@
       <c r="D45" s="2">
         <v>200</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="0" t="s">
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" ht="45">
-      <c r="A46" s="0">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>3102342</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1973,21 +1972,21 @@
       <c r="D46" s="2">
         <v>6365</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="0" t="s">
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
         <v>8</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" ht="45">
-      <c r="A47" s="0">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>3102343</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1996,21 +1995,21 @@
       <c r="D47" s="2">
         <v>50</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="0" t="s">
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" ht="45">
-      <c r="A48" s="0">
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>3102344</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2019,21 +2018,21 @@
       <c r="D48" s="2">
         <v>600</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="0" t="s">
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" ht="45">
-      <c r="A49" s="0">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>3102345</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2042,21 +2041,21 @@
       <c r="D49" s="2">
         <v>110</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="0" t="s">
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>3102346</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2065,21 +2064,21 @@
       <c r="D50" s="2">
         <v>100</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="0" t="s">
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
         <v>8</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" ht="30">
-      <c r="A51" s="0">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>3102347</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2088,21 +2087,21 @@
       <c r="D51" s="2">
         <v>2500</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="0" t="s">
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>3102348</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2111,21 +2110,21 @@
       <c r="D52" s="2">
         <v>2200</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="0" t="s">
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>3102349</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2134,21 +2133,21 @@
       <c r="D53" s="2">
         <v>200</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="0" t="s">
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>3102350</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2157,21 +2156,21 @@
       <c r="D54" s="2">
         <v>5000</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="0" t="s">
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" ht="75">
-      <c r="A55" s="0">
+    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>3102351</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2180,21 +2179,21 @@
       <c r="D55" s="2">
         <v>4000</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="0" t="s">
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" ht="75">
-      <c r="A56" s="0">
+    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>3102352</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2203,21 +2202,21 @@
       <c r="D56" s="2">
         <v>2000</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="0" t="s">
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="0">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>3102353</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2226,21 +2225,21 @@
       <c r="D57" s="2">
         <v>100</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="0" t="s">
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>3102354</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2249,21 +2248,21 @@
       <c r="D58" s="2">
         <v>8300</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="0" t="s">
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" ht="60">
-      <c r="A59" s="0">
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>3102355</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2272,21 +2271,21 @@
       <c r="D59" s="2">
         <v>19</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="0" t="s">
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" ht="90">
-      <c r="A60" s="0">
+    <row r="60" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>3102356</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2295,21 +2294,21 @@
       <c r="D60" s="2">
         <v>100</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="0" t="s">
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" ht="60">
-      <c r="A61" s="0">
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>3102357</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2318,21 +2317,21 @@
       <c r="D61" s="2">
         <v>15</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="0" t="s">
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" ht="135">
-      <c r="A62" s="0">
+    <row r="62" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>3102358</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2341,21 +2340,21 @@
       <c r="D62" s="2">
         <v>60</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="0" t="s">
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" ht="105">
-      <c r="A63" s="0">
+    <row r="63" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>3102359</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2364,21 +2363,21 @@
       <c r="D63" s="2">
         <v>13</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="0" t="s">
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" ht="90">
-      <c r="A64" s="0">
+    <row r="64" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64">
         <v>3102360</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2387,21 +2386,21 @@
       <c r="D64" s="2">
         <v>2880</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="0" t="s">
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
         <v>8</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" ht="45">
-      <c r="A65" s="0">
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65">
         <v>3102361</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2410,21 +2409,21 @@
       <c r="D65" s="2">
         <v>300</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="0" t="s">
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
         <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" ht="135">
-      <c r="A66" s="0">
+    <row r="66" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66">
         <v>3102362</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2433,21 +2432,21 @@
       <c r="D66" s="2">
         <v>490</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="0" t="s">
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" ht="30">
-      <c r="A67" s="0">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67">
         <v>3102363</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2456,21 +2455,21 @@
       <c r="D67" s="2">
         <v>3500</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="0" t="s">
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
         <v>8</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" ht="30">
-      <c r="A68" s="0">
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68">
         <v>3102364</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2479,21 +2478,21 @@
       <c r="D68" s="2">
         <v>3300</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="0" t="s">
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" ht="30">
-      <c r="A69" s="0">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69">
         <v>3102365</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2502,21 +2501,21 @@
       <c r="D69" s="2">
         <v>8000</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="0" t="s">
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="0">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70">
         <v>3102366</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2525,21 +2524,21 @@
       <c r="D70" s="2">
         <v>1000</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="0" t="s">
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" ht="195">
-      <c r="A71" s="0">
+    <row r="71" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71">
         <v>3102367</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2548,21 +2547,21 @@
       <c r="D71" s="2">
         <v>65</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="0" t="s">
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
         <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72">
         <v>3102368</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2571,21 +2570,21 @@
       <c r="D72" s="2">
         <v>30</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="0" t="s">
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73">
         <v>3102369</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2594,21 +2593,21 @@
       <c r="D73" s="2">
         <v>300</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="0" t="s">
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" ht="30">
-      <c r="A74" s="0">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74">
         <v>3102370</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2617,21 +2616,21 @@
       <c r="D74" s="2">
         <v>3</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="0" t="s">
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
         <v>8</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" ht="30">
-      <c r="A75" s="0">
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="0">
+      <c r="B75">
         <v>3102371</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2640,21 +2639,21 @@
       <c r="D75" s="2">
         <v>5</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="0" t="s">
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" ht="30">
-      <c r="A76" s="0">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B76">
         <v>3102372</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2663,21 +2662,21 @@
       <c r="D76" s="2">
         <v>8</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="0" t="s">
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" ht="30">
-      <c r="A77" s="0">
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="0">
+      <c r="B77">
         <v>3102373</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2686,21 +2685,21 @@
       <c r="D77" s="2">
         <v>6</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="0" t="s">
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" ht="30">
-      <c r="A78" s="0">
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="0">
+      <c r="B78">
         <v>3102374</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2709,21 +2708,21 @@
       <c r="D78" s="2">
         <v>15</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="0" t="s">
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
         <v>8</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="0">
+      <c r="B79">
         <v>3102375</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2732,21 +2731,21 @@
       <c r="D79" s="2">
         <v>10</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="0" t="s">
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
         <v>8</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" ht="30">
-      <c r="A80" s="0">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="0">
+      <c r="B80">
         <v>3102376</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2755,21 +2754,21 @@
       <c r="D80" s="2">
         <v>40</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="0" t="s">
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
         <v>8</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="0">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B81">
         <v>3102377</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2778,21 +2777,21 @@
       <c r="D81" s="2">
         <v>35</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="0" t="s">
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" ht="30">
-      <c r="A82" s="0">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="0">
+      <c r="B82">
         <v>3102378</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2801,21 +2800,21 @@
       <c r="D82" s="2">
         <v>4</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="0" t="s">
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B83">
         <v>3102379</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2824,21 +2823,21 @@
       <c r="D83" s="2">
         <v>15</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="0" t="s">
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
         <v>8</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" ht="60">
-      <c r="A84" s="0">
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B84">
         <v>3102380</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2847,21 +2846,21 @@
       <c r="D84" s="2">
         <v>4065</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="0" t="s">
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
         <v>8</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" ht="105">
-      <c r="A85" s="0">
+    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="0">
+      <c r="B85">
         <v>3102381</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2870,21 +2869,21 @@
       <c r="D85" s="2">
         <v>1210</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="0" t="s">
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
         <v>8</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" ht="75">
-      <c r="A86" s="0">
+    <row r="86" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B86">
         <v>3102382</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2893,21 +2892,21 @@
       <c r="D86" s="2">
         <v>2320</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="0" t="s">
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
         <v>8</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="0">
+      <c r="B87">
         <v>3102383</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2916,21 +2915,21 @@
       <c r="D87" s="2">
         <v>15</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="0" t="s">
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
         <v>8</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="0">
+      <c r="B88">
         <v>3102384</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2939,21 +2938,21 @@
       <c r="D88" s="2">
         <v>5000</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="0" t="s">
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
         <v>8</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" ht="30">
-      <c r="A89" s="0">
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="0">
+      <c r="B89">
         <v>3102385</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2962,21 +2961,21 @@
       <c r="D89" s="2">
         <v>5300</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="0" t="s">
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
         <v>8</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="0">
+      <c r="B90">
         <v>3102386</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2985,21 +2984,21 @@
       <c r="D90" s="2">
         <v>10</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="0" t="s">
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
         <v>8</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" ht="45">
-      <c r="A91" s="0">
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B91">
         <v>3102387</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3008,21 +3007,21 @@
       <c r="D91" s="2">
         <v>540</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="0" t="s">
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
         <v>8</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" ht="45">
-      <c r="A92" s="0">
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="0">
+      <c r="B92">
         <v>3102388</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3031,21 +3030,21 @@
       <c r="D92" s="2">
         <v>300</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="0" t="s">
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
         <v>8</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" ht="120">
-      <c r="A93" s="0">
+    <row r="93" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="0">
+      <c r="B93">
         <v>3102389</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3054,21 +3053,21 @@
       <c r="D93" s="2">
         <v>63</v>
       </c>
-      <c r="E93" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="0" t="s">
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
         <v>8</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" ht="30">
-      <c r="A94" s="0">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="0">
+      <c r="B94">
         <v>3102390</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3077,21 +3076,21 @@
       <c r="D94" s="2">
         <v>56</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="0" t="s">
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
         <v>8</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" ht="30">
-      <c r="A95" s="0">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="0">
+      <c r="B95">
         <v>3102391</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3100,21 +3099,21 @@
       <c r="D95" s="2">
         <v>1620</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="0" t="s">
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
         <v>8</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" ht="120">
-      <c r="A96" s="0">
+    <row r="96" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="0">
+      <c r="B96">
         <v>3102392</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3123,21 +3122,21 @@
       <c r="D96" s="2">
         <v>2100</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="0" t="s">
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
         <v>8</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="0">
+      <c r="B97">
         <v>3102393</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -3146,21 +3145,21 @@
       <c r="D97" s="2">
         <v>8</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" s="0" t="s">
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
         <v>8</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="0">
+      <c r="B98">
         <v>3102394</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3169,21 +3168,21 @@
       <c r="D98" s="2">
         <v>30</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="0" t="s">
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
         <v>8</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="0">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="0">
+      <c r="B99">
         <v>3102395</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3192,21 +3191,21 @@
       <c r="D99" s="2">
         <v>22</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" s="0" t="s">
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
         <v>8</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="0">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="0">
+      <c r="B100">
         <v>3102396</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -3215,21 +3214,21 @@
       <c r="D100" s="2">
         <v>38</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="0" t="s">
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
         <v>8</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" ht="30">
-      <c r="A101" s="0">
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="0">
+      <c r="B101">
         <v>3102397</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -3238,21 +3237,21 @@
       <c r="D101" s="2">
         <v>252</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="0" t="s">
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
         <v>8</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="0">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="0">
+      <c r="B102">
         <v>3102398</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -3261,21 +3260,21 @@
       <c r="D102" s="2">
         <v>10000</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="0" t="s">
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
         <v>8</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="0">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="0">
+      <c r="B103">
         <v>3102399</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -3284,21 +3283,21 @@
       <c r="D103" s="2">
         <v>10000</v>
       </c>
-      <c r="E103" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" s="0" t="s">
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
         <v>8</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" ht="150">
-      <c r="A104" s="0">
+    <row r="104" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="0">
+      <c r="B104">
         <v>3102400</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -3307,21 +3306,21 @@
       <c r="D104" s="2">
         <v>1150</v>
       </c>
-      <c r="E104" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="0" t="s">
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
         <v>8</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" ht="135">
-      <c r="A105" s="0">
+    <row r="105" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="0">
+      <c r="B105">
         <v>3102401</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -3330,21 +3329,21 @@
       <c r="D105" s="2">
         <v>2650</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="0" t="s">
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
         <v>8</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" ht="150">
-      <c r="A106" s="0">
+    <row r="106" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="0">
+      <c r="B106">
         <v>3102402</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -3353,21 +3352,21 @@
       <c r="D106" s="2">
         <v>2550</v>
       </c>
-      <c r="E106" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" s="0" t="s">
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
         <v>8</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" ht="135">
-      <c r="A107" s="0">
+    <row r="107" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="0">
+      <c r="B107">
         <v>3102403</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -3376,21 +3375,21 @@
       <c r="D107" s="2">
         <v>1100</v>
       </c>
-      <c r="E107" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" s="0" t="s">
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
         <v>8</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" ht="135">
-      <c r="A108" s="0">
+    <row r="108" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="0">
+      <c r="B108">
         <v>3102404</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -3399,21 +3398,21 @@
       <c r="D108" s="2">
         <v>700</v>
       </c>
-      <c r="E108" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" s="0" t="s">
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
         <v>8</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" ht="165">
-      <c r="A109" s="0">
+    <row r="109" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="0">
+      <c r="B109">
         <v>3102405</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -3422,21 +3421,21 @@
       <c r="D109" s="2">
         <v>1350</v>
       </c>
-      <c r="E109" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="0" t="s">
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
         <v>8</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" ht="165">
-      <c r="A110" s="0">
+    <row r="110" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="0">
+      <c r="B110">
         <v>3102406</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -3445,21 +3444,21 @@
       <c r="D110" s="2">
         <v>3750</v>
       </c>
-      <c r="E110" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="0" t="s">
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
         <v>8</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" ht="165">
-      <c r="A111" s="0">
+    <row r="111" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="0">
+      <c r="B111">
         <v>3102407</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -3468,21 +3467,21 @@
       <c r="D111" s="2">
         <v>3040</v>
       </c>
-      <c r="E111" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="0" t="s">
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
         <v>8</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" ht="165">
-      <c r="A112" s="0">
+    <row r="112" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="0">
+      <c r="B112">
         <v>3102408</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -3491,21 +3490,21 @@
       <c r="D112" s="2">
         <v>1400</v>
       </c>
-      <c r="E112" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" s="0" t="s">
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
         <v>8</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" ht="45">
-      <c r="A113" s="0">
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="0">
+      <c r="B113">
         <v>3102409</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -3514,21 +3513,21 @@
       <c r="D113" s="2">
         <v>80</v>
       </c>
-      <c r="E113" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="0" t="s">
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
         <v>8</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" ht="120">
-      <c r="A114" s="0">
+    <row r="114" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="0">
+      <c r="B114">
         <v>3102410</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -3537,21 +3536,21 @@
       <c r="D114" s="2">
         <v>40</v>
       </c>
-      <c r="E114" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" s="0" t="s">
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
         <v>8</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" ht="45">
-      <c r="A115" s="0">
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="0">
+      <c r="B115">
         <v>3102411</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -3560,21 +3559,21 @@
       <c r="D115" s="2">
         <v>2800</v>
       </c>
-      <c r="E115" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="0" t="s">
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
         <v>8</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" ht="105">
-      <c r="A116" s="0">
+    <row r="116" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="0">
+      <c r="B116">
         <v>3102412</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -3583,21 +3582,21 @@
       <c r="D116" s="2">
         <v>100</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="0" t="s">
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" t="s">
         <v>8</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" ht="90">
-      <c r="A117" s="0">
+    <row r="117" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="0">
+      <c r="B117">
         <v>3102413</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3606,21 +3605,21 @@
       <c r="D117" s="2">
         <v>106</v>
       </c>
-      <c r="E117" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" s="0" t="s">
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
         <v>8</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" ht="120">
-      <c r="A118" s="0">
+    <row r="118" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="0">
+      <c r="B118">
         <v>3102414</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -3629,21 +3628,21 @@
       <c r="D118" s="2">
         <v>4000</v>
       </c>
-      <c r="E118" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" s="0" t="s">
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="0">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="0">
+      <c r="B119">
         <v>3102415</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -3652,21 +3651,21 @@
       <c r="D119" s="2">
         <v>320</v>
       </c>
-      <c r="E119" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" s="0" t="s">
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
         <v>8</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" ht="45">
-      <c r="A120" s="0">
+    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="0">
+      <c r="B120">
         <v>3102416</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -3675,21 +3674,21 @@
       <c r="D120" s="2">
         <v>5</v>
       </c>
-      <c r="E120" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="0" t="s">
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
         <v>8</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" ht="45">
-      <c r="A121" s="0">
+    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="0">
+      <c r="B121">
         <v>3102417</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -3698,21 +3697,21 @@
       <c r="D121" s="2">
         <v>5</v>
       </c>
-      <c r="E121" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" s="0" t="s">
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
         <v>8</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="0">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="0">
+      <c r="B122">
         <v>3102418</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -3721,21 +3720,21 @@
       <c r="D122" s="2">
         <v>300</v>
       </c>
-      <c r="E122" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" s="0" t="s">
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
         <v>8</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" ht="30">
-      <c r="A123" s="0">
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="0">
+      <c r="B123">
         <v>3102419</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -3744,21 +3743,21 @@
       <c r="D123" s="2">
         <v>10</v>
       </c>
-      <c r="E123" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="0" t="s">
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
         <v>8</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" ht="30">
-      <c r="A124" s="0">
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="0">
+      <c r="B124">
         <v>3102420</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -3767,21 +3766,21 @@
       <c r="D124" s="2">
         <v>96</v>
       </c>
-      <c r="E124" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" s="0" t="s">
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
         <v>8</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" ht="30">
-      <c r="A125" s="0">
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="0">
+      <c r="B125">
         <v>3102421</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -3790,21 +3789,21 @@
       <c r="D125" s="2">
         <v>96</v>
       </c>
-      <c r="E125" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="0" t="s">
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
         <v>8</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="0">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="0">
+      <c r="B126">
         <v>3102422</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -3813,21 +3812,21 @@
       <c r="D126" s="2">
         <v>70000</v>
       </c>
-      <c r="E126" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" s="0" t="s">
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
         <v>8</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" ht="60">
-      <c r="A127" s="0">
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="0">
+      <c r="B127">
         <v>3102423</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -3836,21 +3835,21 @@
       <c r="D127" s="2">
         <v>2350</v>
       </c>
-      <c r="E127" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" s="0" t="s">
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
         <v>8</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" ht="45">
-      <c r="A128" s="0">
+    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="0">
+      <c r="B128">
         <v>3102424</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -3859,21 +3858,21 @@
       <c r="D128" s="2">
         <v>80</v>
       </c>
-      <c r="E128" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="0" t="s">
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
         <v>8</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" ht="60">
-      <c r="A129" s="0">
+    <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="0">
+      <c r="B129">
         <v>3102425</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -3882,21 +3881,21 @@
       <c r="D129" s="2">
         <v>10</v>
       </c>
-      <c r="E129" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="0" t="s">
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
         <v>8</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" ht="60">
-      <c r="A130" s="0">
+    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="0">
+      <c r="B130">
         <v>3102426</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -3905,21 +3904,21 @@
       <c r="D130" s="2">
         <v>24</v>
       </c>
-      <c r="E130" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" s="0" t="s">
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
         <v>8</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" ht="60">
-      <c r="A131" s="0">
+    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="0">
+      <c r="B131">
         <v>3102427</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -3928,21 +3927,21 @@
       <c r="D131" s="2">
         <v>24</v>
       </c>
-      <c r="E131" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" s="0" t="s">
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
         <v>8</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" ht="75">
-      <c r="A132" s="0">
+    <row r="132" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="0">
+      <c r="B132">
         <v>3102428</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -3951,21 +3950,21 @@
       <c r="D132" s="2">
         <v>1300</v>
       </c>
-      <c r="E132" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" s="0" t="s">
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
         <v>8</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" ht="30">
-      <c r="A133" s="0">
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="0">
+      <c r="B133">
         <v>3102429</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -3974,21 +3973,21 @@
       <c r="D133" s="2">
         <v>15000</v>
       </c>
-      <c r="E133" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" s="0" t="s">
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
         <v>8</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" ht="30">
-      <c r="A134" s="0">
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="0">
+      <c r="B134">
         <v>3102430</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -3997,21 +3996,21 @@
       <c r="D134" s="2">
         <v>25000</v>
       </c>
-      <c r="E134" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" s="0" t="s">
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
         <v>8</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" ht="30">
-      <c r="A135" s="0">
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="0">
+      <c r="B135">
         <v>3102431</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -4020,21 +4019,21 @@
       <c r="D135" s="2">
         <v>20000</v>
       </c>
-      <c r="E135" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" s="0" t="s">
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
         <v>8</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" ht="195">
-      <c r="A136" s="0">
+    <row r="136" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="0">
+      <c r="B136">
         <v>3102432</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -4043,21 +4042,21 @@
       <c r="D136" s="2">
         <v>50800</v>
       </c>
-      <c r="E136" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" s="0" t="s">
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
         <v>8</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" ht="195">
-      <c r="A137" s="0">
+    <row r="137" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="0">
+      <c r="B137">
         <v>3102433</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -4066,21 +4065,21 @@
       <c r="D137" s="2">
         <v>21500</v>
       </c>
-      <c r="E137" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F137" s="0" t="s">
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
         <v>8</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" ht="195">
-      <c r="A138" s="0">
+    <row r="138" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="0">
+      <c r="B138">
         <v>3102434</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -4089,21 +4088,21 @@
       <c r="D138" s="2">
         <v>31200</v>
       </c>
-      <c r="E138" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" s="0" t="s">
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
         <v>8</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" ht="195">
-      <c r="A139" s="0">
+    <row r="139" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="0">
+      <c r="B139">
         <v>3102435</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -4112,21 +4111,21 @@
       <c r="D139" s="2">
         <v>52800</v>
       </c>
-      <c r="E139" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" s="0" t="s">
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
         <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" ht="195">
-      <c r="A140" s="0">
+    <row r="140" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="0">
+      <c r="B140">
         <v>3102436</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -4135,21 +4134,21 @@
       <c r="D140" s="2">
         <v>48500</v>
       </c>
-      <c r="E140" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" s="0" t="s">
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
         <v>8</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="0">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="0">
+      <c r="B141">
         <v>3102437</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -4158,21 +4157,21 @@
       <c r="D141" s="2">
         <v>3000</v>
       </c>
-      <c r="E141" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" s="0" t="s">
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
         <v>8</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="0">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="0">
+      <c r="B142">
         <v>3102438</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -4181,21 +4180,21 @@
       <c r="D142" s="2">
         <v>1000</v>
       </c>
-      <c r="E142" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" s="0" t="s">
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
         <v>8</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" ht="30">
-      <c r="A143" s="0">
+    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="0">
+      <c r="B143">
         <v>3102439</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -4204,21 +4203,21 @@
       <c r="D143" s="2">
         <v>144</v>
       </c>
-      <c r="E143" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F143" s="0" t="s">
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
         <v>8</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" ht="45">
-      <c r="A144" s="0">
+    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="0">
+      <c r="B144">
         <v>3102440</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -4227,21 +4226,21 @@
       <c r="D144" s="2">
         <v>800</v>
       </c>
-      <c r="E144" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" s="0" t="s">
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
         <v>8</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="0">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="0">
+      <c r="B145">
         <v>3102441</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -4250,21 +4249,21 @@
       <c r="D145" s="2">
         <v>6</v>
       </c>
-      <c r="E145" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" s="0" t="s">
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
         <v>8</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="0">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="0">
+      <c r="B146">
         <v>3102442</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -4273,21 +4272,21 @@
       <c r="D146" s="2">
         <v>4</v>
       </c>
-      <c r="E146" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" s="0" t="s">
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
         <v>8</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="147" ht="165">
-      <c r="A147" s="0">
+    <row r="147" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="0">
+      <c r="B147">
         <v>3102443</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -4296,21 +4295,21 @@
       <c r="D147" s="2">
         <v>120</v>
       </c>
-      <c r="E147" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" s="0" t="s">
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
         <v>8</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" ht="165">
-      <c r="A148" s="0">
+    <row r="148" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="0">
+      <c r="B148">
         <v>3102444</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -4319,21 +4318,21 @@
       <c r="D148" s="2">
         <v>300</v>
       </c>
-      <c r="E148" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" s="0" t="s">
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" t="s">
         <v>8</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" ht="165">
-      <c r="A149" s="0">
+    <row r="149" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="0">
+      <c r="B149">
         <v>3102445</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -4342,21 +4341,21 @@
       <c r="D149" s="2">
         <v>300</v>
       </c>
-      <c r="E149" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" s="0" t="s">
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
         <v>8</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="0">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="0">
+      <c r="B150">
         <v>3102446</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -4365,21 +4364,21 @@
       <c r="D150" s="2">
         <v>22000</v>
       </c>
-      <c r="E150" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F150" s="0" t="s">
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
         <v>8</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="0">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="0">
+      <c r="B151">
         <v>3102447</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -4388,21 +4387,21 @@
       <c r="D151" s="2">
         <v>10</v>
       </c>
-      <c r="E151" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" s="0" t="s">
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" t="s">
         <v>8</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="0">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="0">
+      <c r="B152">
         <v>3102448</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -4411,21 +4410,21 @@
       <c r="D152" s="2">
         <v>12</v>
       </c>
-      <c r="E152" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" s="0" t="s">
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
         <v>8</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="0">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="0">
+      <c r="B153">
         <v>3102449</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -4434,21 +4433,21 @@
       <c r="D153" s="2">
         <v>16</v>
       </c>
-      <c r="E153" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" s="0" t="s">
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" t="s">
         <v>8</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="0">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="0">
+      <c r="B154">
         <v>3102450</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -4457,21 +4456,21 @@
       <c r="D154" s="2">
         <v>24</v>
       </c>
-      <c r="E154" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" s="0" t="s">
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="s">
         <v>8</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="0">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="0">
+      <c r="B155">
         <v>3102451</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -4480,21 +4479,21 @@
       <c r="D155" s="2">
         <v>18</v>
       </c>
-      <c r="E155" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" s="0" t="s">
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
         <v>8</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" ht="45">
-      <c r="A156" s="0">
+    <row r="156" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="0">
+      <c r="B156">
         <v>3102452</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -4503,21 +4502,21 @@
       <c r="D156" s="2">
         <v>1000</v>
       </c>
-      <c r="E156" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" s="0" t="s">
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
         <v>8</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" ht="45">
-      <c r="A157" s="0">
+    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="0">
+      <c r="B157">
         <v>3102453</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -4526,21 +4525,21 @@
       <c r="D157" s="2">
         <v>1000</v>
       </c>
-      <c r="E157" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" s="0" t="s">
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" t="s">
         <v>8</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" ht="45">
-      <c r="A158" s="0">
+    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="0">
+      <c r="B158">
         <v>3102454</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -4549,21 +4548,21 @@
       <c r="D158" s="2">
         <v>20000</v>
       </c>
-      <c r="E158" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158" s="0" t="s">
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
         <v>8</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="159" ht="45">
-      <c r="A159" s="0">
+    <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="0">
+      <c r="B159">
         <v>3102455</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -4572,21 +4571,21 @@
       <c r="D159" s="2">
         <v>30000</v>
       </c>
-      <c r="E159" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" s="0" t="s">
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" t="s">
         <v>8</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" ht="45">
-      <c r="A160" s="0">
+    <row r="160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="0">
+      <c r="B160">
         <v>3102456</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -4595,21 +4594,21 @@
       <c r="D160" s="2">
         <v>30000</v>
       </c>
-      <c r="E160" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" s="0" t="s">
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
         <v>8</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" ht="45">
-      <c r="A161" s="0">
+    <row r="161" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="0">
+      <c r="B161">
         <v>3102457</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -4618,21 +4617,21 @@
       <c r="D161" s="2">
         <v>2000</v>
       </c>
-      <c r="E161" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" s="0" t="s">
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
         <v>8</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="162" ht="45">
-      <c r="A162" s="0">
+    <row r="162" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="0">
+      <c r="B162">
         <v>3102458</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -4641,21 +4640,21 @@
       <c r="D162" s="2">
         <v>1500</v>
       </c>
-      <c r="E162" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162" s="0" t="s">
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" t="s">
         <v>8</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="0">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="0">
+      <c r="B163">
         <v>3102459</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -4664,21 +4663,21 @@
       <c r="D163" s="2">
         <v>400</v>
       </c>
-      <c r="E163" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" s="0" t="s">
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" t="s">
         <v>8</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="0">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="0">
+      <c r="B164">
         <v>3102460</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -4687,21 +4686,21 @@
       <c r="D164" s="2">
         <v>300</v>
       </c>
-      <c r="E164" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F164" s="0" t="s">
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" t="s">
         <v>8</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" ht="90">
-      <c r="A165" s="0">
+    <row r="165" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="0">
+      <c r="B165">
         <v>3102461</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -4710,21 +4709,21 @@
       <c r="D165" s="2">
         <v>150</v>
       </c>
-      <c r="E165" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F165" s="0" t="s">
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" t="s">
         <v>8</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="166" ht="45">
-      <c r="A166" s="0">
+    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="0">
+      <c r="B166">
         <v>3102462</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -4733,21 +4732,21 @@
       <c r="D166" s="2">
         <v>22</v>
       </c>
-      <c r="E166" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F166" s="0" t="s">
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" t="s">
         <v>8</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="167" ht="30">
-      <c r="A167" s="0">
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="0">
+      <c r="B167">
         <v>3102463</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -4756,21 +4755,21 @@
       <c r="D167" s="2">
         <v>30</v>
       </c>
-      <c r="E167" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" s="0" t="s">
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" t="s">
         <v>8</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="168" ht="60">
-      <c r="A168" s="0">
+    <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="0">
+      <c r="B168">
         <v>3102464</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -4779,21 +4778,21 @@
       <c r="D168" s="2">
         <v>550</v>
       </c>
-      <c r="E168" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F168" s="0" t="s">
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" t="s">
         <v>8</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="0">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="0">
+      <c r="B169">
         <v>3102465</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -4802,21 +4801,21 @@
       <c r="D169" s="2">
         <v>100</v>
       </c>
-      <c r="E169" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F169" s="0" t="s">
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" t="s">
         <v>8</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="0">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="0">
+      <c r="B170">
         <v>3102466</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -4825,21 +4824,21 @@
       <c r="D170" s="2">
         <v>10</v>
       </c>
-      <c r="E170" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" s="0" t="s">
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" t="s">
         <v>8</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="0">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="0">
+      <c r="B171">
         <v>3102467</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -4848,21 +4847,21 @@
       <c r="D171" s="2">
         <v>7000</v>
       </c>
-      <c r="E171" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" s="0" t="s">
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" t="s">
         <v>8</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="172" ht="75">
-      <c r="A172" s="0">
+    <row r="172" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="0">
+      <c r="B172">
         <v>3102468</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -4871,21 +4870,21 @@
       <c r="D172" s="2">
         <v>2030</v>
       </c>
-      <c r="E172" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F172" s="0" t="s">
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" t="s">
         <v>8</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="173" ht="90">
-      <c r="A173" s="0">
+    <row r="173" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="0">
+      <c r="B173">
         <v>3102469</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -4894,21 +4893,21 @@
       <c r="D173" s="2">
         <v>50</v>
       </c>
-      <c r="E173" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F173" s="0" t="s">
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" t="s">
         <v>8</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="174" ht="60">
-      <c r="A174" s="0">
+    <row r="174" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="0">
+      <c r="B174">
         <v>3102470</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -4917,21 +4916,21 @@
       <c r="D174" s="2">
         <v>390</v>
       </c>
-      <c r="E174" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F174" s="0" t="s">
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" t="s">
         <v>8</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="0">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="0">
+      <c r="B175">
         <v>3102471</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -4940,10 +4939,10 @@
       <c r="D175" s="2">
         <v>6</v>
       </c>
-      <c r="E175" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" s="0" t="s">
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" t="s">
         <v>8</v>
       </c>
       <c r="G175" s="2" t="s">
@@ -4953,6 +4952,5 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>